--- a/data/Demo BoD.xlsx
+++ b/data/Demo BoD.xlsx
@@ -1,28 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gerard/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660"/>
+    <workbookView xWindow="645" yWindow="1185" windowWidth="24960" windowHeight="14820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -1050,7 +1037,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1076,24 +1070,66 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+  </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E335" totalsRowShown="0">
+  <autoFilter ref="A1:E335"/>
+  <tableColumns count="5">
+    <tableColumn id="2" name="Active"/>
+    <tableColumn id="3" name="Cause"/>
+    <tableColumn id="4" name="DALYs" dataDxfId="2"/>
+    <tableColumn id="5" name="Deaths" dataDxfId="1"/>
+    <tableColumn id="6" name="Prevalence" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1107,39 +1143,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -1174,7 +1210,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -1218,166 +1254,142 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -1385,5708 +1397,5718 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E335"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="64.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>93000.388456560016</v>
       </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
         <v>3631467.6710000001</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>436.69589458430005</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>8.546364936941</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>364.60040708000002</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>23683.422218039999</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>500.46288540040001</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>3869988.3871999998</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>1689.0378903450001</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>18.460197056209999</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>46111.450983000002</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>17578.240573790001</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>409.9919794919</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>3551054.2716999999</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>248.96321110050002</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>6.6132640694380003</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>269501.38306000002</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>4167.1805429019996</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>65.39744478306001</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>3321.2821693999999</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>18996.56358197</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>290.26911195100001</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>1051.21072147</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>11121.682877084</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>204.87227398950003</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>388.64577764999996</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>73381.404640570006</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>1369.0668075630001</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>13661.510148000001</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>136844.81984030001</v>
       </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
         <v>3212583.9395000003</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <v>1894.2022928269998</v>
       </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
         <v>23890.775818000002</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <v>29351.627043439999</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <v>180.08413742670001</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <v>220384.41750000001</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <v>3043.8342244959999</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <v>93.108501464940005</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="2">
         <v>863.33211808999999</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <v>24127887.91894</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <v>394955.40642219997</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <v>42745363.947000004</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="2">
         <v>2317.5914507330003</v>
       </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
         <v>71424.496429000006</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="2">
         <v>63250.655917150005</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="2">
         <v>3773.9239056740003</v>
       </c>
-      <c r="E19" s="1">
-        <v>85330.830663000015</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E19" s="2">
+        <v>85330.830663000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="2">
         <v>851.29407450360009</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="2">
         <v>8.934717554984001</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="2">
         <v>2959.1638309999998</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="2">
         <v>20567.440561200001</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="2">
         <v>204.15468360040001</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="2">
         <v>224894.81781000001</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="2">
         <v>1768.7465403530002</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <v>1.0950609860697</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="2">
         <v>8056.3653677000002</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="2">
         <v>184525.83871020001</v>
       </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1">
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
         <v>1926072.4301</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="2">
         <v>6842.9843816490002</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="2">
         <v>238.71921242780002</v>
       </c>
-      <c r="E24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="2">
         <v>24638.59995467</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="2">
         <v>480.11262458639999</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="2">
         <v>6428.6235598000003</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="2">
         <v>179.83977427780002</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="2">
         <v>3.1990448228440003</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="2">
         <v>358.92912146000003</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="2">
         <v>33799.906262069999</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="2">
         <v>38.701705736329998</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="2">
         <v>16188389.919000002</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="2">
         <v>29577.980677700005</v>
       </c>
-      <c r="D28" s="1">
-        <v>0</v>
-      </c>
-      <c r="E28" s="1">
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
         <v>296260.73749999999</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="2">
         <v>238372.05898870001</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="2">
         <v>4091.0055256850005</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="2">
         <v>2603221.3506</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="2">
         <v>7803.0509411140001</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="2">
         <v>188.46106491809999</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="2">
         <v>68561.927121999994</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="2">
         <v>6489.0581090140004</v>
       </c>
-      <c r="D31" s="1">
-        <v>0</v>
-      </c>
-      <c r="E31" s="1">
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
         <v>540723.60108000005</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="2">
         <v>26122.050830980003</v>
       </c>
-      <c r="D32" s="1">
-        <v>0</v>
-      </c>
-      <c r="E32" s="1">
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
         <v>102737.722282</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>1</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="2">
         <v>55700.031508680004</v>
       </c>
-      <c r="D33" s="1">
-        <v>0</v>
-      </c>
-      <c r="E33" s="1">
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
         <v>396339.63187000004</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="2">
         <v>12387.126601902</v>
       </c>
-      <c r="D34" s="1">
-        <v>0</v>
-      </c>
-      <c r="E34" s="1">
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
         <v>386345.06183000002</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="2">
         <v>57481.328043620008</v>
       </c>
-      <c r="D35" s="1">
-        <v>0</v>
-      </c>
-      <c r="E35" s="1">
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
         <v>284179.55358000001</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="2">
         <v>14130.55713134</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="2">
         <v>566.5505617993</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="2">
         <v>1517.9425300000003</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="2">
         <v>38299.524096339999</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="2">
         <v>815.44027536140004</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="2">
         <v>1689.8855194</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="2">
         <v>131205.2486043</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="2">
         <v>3522.4582679129999</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="2">
         <v>14387.089145</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="2">
         <v>6549.5678764489994</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="2">
         <v>9.1056649119670013E-2</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="2">
         <v>31486.953823</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="2">
         <v>1974.7277387629999</v>
       </c>
-      <c r="D40" s="1">
-        <v>0</v>
-      </c>
-      <c r="E40" s="1">
+      <c r="D40" s="2">
+        <v>0</v>
+      </c>
+      <c r="E40" s="2">
         <v>67958.637734000004</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="2">
         <v>22652.508473530001</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="2">
         <v>561.7762816549</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="2">
         <v>10209.3285008</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="2">
         <v>2935152.9619490001</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="2">
         <v>104433.04441362001</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="2">
         <v>1795508.598</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="2">
         <v>1200.7575195356001</v>
       </c>
-      <c r="D43" s="1">
-        <v>0</v>
-      </c>
-      <c r="E43" s="1">
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
+      <c r="E43" s="2">
         <v>5111047.5897000004</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="2">
         <v>10389.095949895001</v>
       </c>
-      <c r="D44" s="1">
-        <v>0</v>
-      </c>
-      <c r="E44" s="1">
+      <c r="D44" s="2">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2">
         <v>17748123.965</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>1</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="2">
         <v>22012.77308698</v>
       </c>
-      <c r="D45" s="1">
-        <v>0</v>
-      </c>
-      <c r="E45" s="1">
+      <c r="D45" s="2">
+        <v>0</v>
+      </c>
+      <c r="E45" s="2">
         <v>275458.02752</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="2">
         <v>1396.2945305139999</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="2">
         <v>7.5649443513410004</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="2">
         <v>19916.119470000001</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="2">
         <v>34341.758138090001</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="2">
         <v>957.57138036690003</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="2">
         <v>4882.6760242</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="1">
-        <v>0</v>
-      </c>
-      <c r="D48" s="1">
-        <v>0</v>
-      </c>
-      <c r="E48" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C48" s="2">
+        <v>0</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="2">
         <v>2667.5772167980003</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="2">
         <v>5.2861141561930003</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="2">
         <v>374552.01198999997</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="2">
         <v>394660.68614960002</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="2">
         <v>10461.947974023</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="2">
         <v>1548935.7988</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>1</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="2">
         <v>143027.6423147</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="2">
         <v>4290.7147485280002</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="2">
         <v>621795.27656999999</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="2">
         <v>74683.900260970011</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="2">
         <v>1462.465129463</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="2">
         <v>230733.68369999999</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="2">
         <v>45699.092508549998</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="2">
         <v>1698.160228531</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53" s="2">
         <v>233573.30308000001</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="2">
         <v>131250.05106590001</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="2">
         <v>3010.607867488</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54" s="2">
         <v>462833.53519000002</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="2">
         <v>2628.3693526739999</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55" s="2">
         <v>72.520698631680006</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55" s="2">
         <v>565.74989627000002</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="2">
         <v>11588.350238361001</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56" s="2">
         <v>293.96733303860003</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56" s="2">
         <v>753.17140053999992</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>1</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="2">
         <v>234775.94226710004</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57" s="2">
         <v>8305.9738401899995</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57" s="2">
         <v>739666.79631000001</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="2">
         <v>493180.44562280003</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58" s="2">
         <v>12898.645456970002</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E58" s="2">
         <v>3277946.2222000002</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="2">
         <v>188255.3465897</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59" s="2">
         <v>5311.6502693279999</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E59" s="2">
         <v>109410.71638899999</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="2">
         <v>11309.654426746001</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60" s="2">
         <v>372.36531215649995</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E60" s="2">
         <v>5542.3256317000005</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="2">
         <v>51818.188489600005</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61" s="2">
         <v>1657.9020189810001</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E61" s="2">
         <v>26619.515117000003</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="2">
         <v>55774.080932569996</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62" s="2">
         <v>1772.9500929790001</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62" s="2">
         <v>28563.810522000003</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>1</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="2">
         <v>69353.422740420006</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63" s="2">
         <v>1508.4328452049999</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E63" s="2">
         <v>48685.065116999998</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="2">
         <v>110.59911582226</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64" s="2">
         <v>4.5738016643539998</v>
       </c>
-      <c r="E64" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="2">
         <v>2960.4996308940003</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65" s="2">
         <v>16.937740380339999</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E65" s="2">
         <v>15838.345003</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66" s="2">
         <v>62087.944578789997</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66" s="2">
         <v>1984.9289888609999</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E66" s="2">
         <v>4359.8111778000002</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" s="2">
         <v>8565542.9444520008</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67" s="2">
         <v>109836.56083854999</v>
       </c>
-      <c r="E67" s="1">
+      <c r="E67" s="2">
         <v>37487579.557999998</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68" s="2">
         <v>61226.646716429997</v>
       </c>
-      <c r="D68" s="1">
-        <v>0</v>
-      </c>
-      <c r="E68" s="1">
+      <c r="D68" s="2">
+        <v>0</v>
+      </c>
+      <c r="E68" s="2">
         <v>507119.69177999999</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>1</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69" s="2">
         <v>2101089.7840270004</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69" s="2">
         <v>29407.589832400001</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E69" s="2">
         <v>7740459.4656999996</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70" s="2">
         <v>1509188.0807379999</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70" s="2">
         <v>16631.529756399999</v>
       </c>
-      <c r="E70" s="1">
+      <c r="E70" s="2">
         <v>910703.51684000005</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71" s="2">
         <v>590457.71239390003</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71" s="2">
         <v>6928.2687759609998</v>
       </c>
-      <c r="E71" s="1">
+      <c r="E71" s="2">
         <v>207142.85787000001</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72" s="2">
         <v>39032.062983030002</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72" s="2">
         <v>313.37635316260003</v>
       </c>
-      <c r="E72" s="1">
+      <c r="E72" s="2">
         <v>84769.970220000003</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>1</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73" s="2">
         <v>203906.7402762</v>
       </c>
-      <c r="D73" s="1">
-        <v>0</v>
-      </c>
-      <c r="E73" s="1">
+      <c r="D73" s="2">
+        <v>0</v>
+      </c>
+      <c r="E73" s="2">
         <v>3225306.1334000002</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>1</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74" s="2">
         <v>16662.013860570001</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74" s="2">
         <v>229.60882909380001</v>
       </c>
-      <c r="E74" s="1">
+      <c r="E74" s="2">
         <v>60005.474372999997</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>1</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75" s="2">
         <v>9940.5341758970008</v>
       </c>
-      <c r="D75" s="1">
-        <v>0</v>
-      </c>
-      <c r="E75" s="1">
+      <c r="D75" s="2">
+        <v>0</v>
+      </c>
+      <c r="E75" s="2">
         <v>107223.466831</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>1</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76" s="2">
         <v>412.1523767868</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D76" s="2">
         <v>8.313306028793999</v>
       </c>
-      <c r="E76" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E76" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>1</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77" s="2">
         <v>3217.3196329559996</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D77" s="2">
         <v>104.83234876972</v>
       </c>
-      <c r="E77" s="1">
+      <c r="E77" s="2">
         <v>6476.7110096000006</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>1</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78" s="2">
         <v>1540.057026703</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78" s="2">
         <v>0.33344009786750001</v>
       </c>
-      <c r="E78" s="1">
+      <c r="E78" s="2">
         <v>9261.0830546000016</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>1</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C79" s="2">
         <v>255059.55167420002</v>
       </c>
-      <c r="D79" s="1">
-        <v>0</v>
-      </c>
-      <c r="E79" s="1">
+      <c r="D79" s="2">
+        <v>0</v>
+      </c>
+      <c r="E79" s="2">
         <v>1418587.4976000001</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>1</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80" s="2">
         <v>88432.180242770002</v>
       </c>
-      <c r="D80" s="1">
-        <v>0</v>
-      </c>
-      <c r="E80" s="1">
+      <c r="D80" s="2">
+        <v>0</v>
+      </c>
+      <c r="E80" s="2">
         <v>2255959.0755000003</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>1</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81" s="2">
         <v>552426.63245899999</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D81" s="2">
         <v>14388.2827985</v>
       </c>
-      <c r="E81" s="1">
+      <c r="E81" s="2">
         <v>1945556.9796</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>1</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82" s="2">
         <v>1267651.6950733999</v>
       </c>
-      <c r="D82" s="1">
+      <c r="D82" s="2">
         <v>27837.082820690001</v>
       </c>
-      <c r="E82" s="1">
+      <c r="E82" s="2">
         <v>20303929.23</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>1</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83" s="2">
         <v>3834687.0089450004</v>
       </c>
-      <c r="D83" s="1">
+      <c r="D83" s="2">
         <v>48209.618791620007</v>
       </c>
-      <c r="E83" s="1">
+      <c r="E83" s="2">
         <v>3409542.0125000002</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>1</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84" s="2">
         <v>596051.52434749994</v>
       </c>
-      <c r="D84" s="1">
+      <c r="D84" s="2">
         <v>6382.4300360340003</v>
       </c>
-      <c r="E84" s="1">
+      <c r="E84" s="2">
         <v>768440.69133000006</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>1</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C85" s="2">
         <v>165743.3537071</v>
       </c>
-      <c r="D85" s="1">
+      <c r="D85" s="2">
         <v>5.754668653526001</v>
       </c>
-      <c r="E85" s="1">
+      <c r="E85" s="2">
         <v>6217461.3071999997</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>1</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C86" s="2">
         <v>59840.404246090002</v>
       </c>
-      <c r="D86" s="1">
+      <c r="D86" s="2">
         <v>673.48275158059994</v>
       </c>
-      <c r="E86" s="1">
+      <c r="E86" s="2">
         <v>54516.151923999998</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>1</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C87" s="1">
+      <c r="C87" s="2">
         <v>242963.07063080001</v>
       </c>
-      <c r="D87" s="1">
+      <c r="D87" s="2">
         <v>5303.1079703810001</v>
       </c>
-      <c r="E87" s="1">
+      <c r="E87" s="2">
         <v>1348551.7942000001</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>1</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C88" s="2">
         <v>1639.425792069</v>
       </c>
-      <c r="D88" s="1">
+      <c r="D88" s="2">
         <v>22.06375168101</v>
       </c>
-      <c r="E88" s="1">
+      <c r="E88" s="2">
         <v>8.8660289705000004</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>1</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89" s="2">
         <v>28482.959495380001</v>
       </c>
-      <c r="D89" s="1">
+      <c r="D89" s="2">
         <v>324.98610163890004</v>
       </c>
-      <c r="E89" s="1">
+      <c r="E89" s="2">
         <v>22689.608851000001</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>1</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C90" s="2">
         <v>287120.6436982</v>
       </c>
-      <c r="D90" s="1">
+      <c r="D90" s="2">
         <v>4194.8345554959997</v>
       </c>
-      <c r="E90" s="1">
+      <c r="E90" s="2">
         <v>16143.635144</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>1</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C91" s="1">
+      <c r="C91" s="2">
         <v>160806.8651241</v>
       </c>
-      <c r="D91" s="1">
+      <c r="D91" s="2">
         <v>348.274577196</v>
       </c>
-      <c r="E91" s="1">
+      <c r="E91" s="2">
         <v>435951.23429000005</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>1</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C92" s="2">
         <v>574964.7099573001</v>
       </c>
-      <c r="D92" s="1">
+      <c r="D92" s="2">
         <v>14987.811693400001</v>
       </c>
-      <c r="E92" s="1">
+      <c r="E92" s="2">
         <v>24316.592729</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>1</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C93" s="1">
+      <c r="C93" s="2">
         <v>30708.992531360003</v>
       </c>
-      <c r="D93" s="1">
-        <v>0</v>
-      </c>
-      <c r="E93" s="1">
+      <c r="D93" s="2">
+        <v>0</v>
+      </c>
+      <c r="E93" s="2">
         <v>324013.91932000004</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>1</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C94" s="1">
+      <c r="C94" s="2">
         <v>8318.3144167890005</v>
       </c>
-      <c r="D94" s="1">
+      <c r="D94" s="2">
         <v>1.1861176351882001</v>
       </c>
-      <c r="E94" s="1">
+      <c r="E94" s="2">
         <v>41835.386671</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>1</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C95" s="1">
-        <v>0</v>
-      </c>
-      <c r="D95" s="1">
-        <v>0</v>
-      </c>
-      <c r="E95" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C95" s="2">
+        <v>0</v>
+      </c>
+      <c r="D95" s="2">
+        <v>0</v>
+      </c>
+      <c r="E95" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>1</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C96" s="1">
+      <c r="C96" s="2">
         <v>24230.979105710001</v>
       </c>
-      <c r="D96" s="1">
-        <v>0</v>
-      </c>
-      <c r="E96" s="1">
+      <c r="D96" s="2">
+        <v>0</v>
+      </c>
+      <c r="E96" s="2">
         <v>892399.57065999997</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>1</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C97" s="1">
+      <c r="C97" s="2">
         <v>33611.015732450003</v>
       </c>
-      <c r="D97" s="1">
+      <c r="D97" s="2">
         <v>347.06057131330004</v>
       </c>
-      <c r="E97" s="1">
+      <c r="E97" s="2">
         <v>110224.61412300001</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>1</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C98" s="2">
         <v>8274.2901677280006</v>
       </c>
-      <c r="D98" s="1">
+      <c r="D98" s="2">
         <v>261.80792172209999</v>
       </c>
-      <c r="E98" s="1">
+      <c r="E98" s="2">
         <v>1063.0432075900001</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>1</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C99" s="2">
         <v>71079.091252910002</v>
       </c>
-      <c r="D99" s="1">
+      <c r="D99" s="2">
         <v>1010.7379179781</v>
       </c>
-      <c r="E99" s="1">
+      <c r="E99" s="2">
         <v>504731.05722000002</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>1</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C100" s="1">
+      <c r="C100" s="2">
         <v>673.4443981070001</v>
       </c>
-      <c r="D100" s="1">
+      <c r="D100" s="2">
         <v>0.24754599597390001</v>
       </c>
-      <c r="E100" s="1">
+      <c r="E100" s="2">
         <v>6979.3670063000009</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>1</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C101" s="1">
+      <c r="C101" s="2">
         <v>43309.084459029997</v>
       </c>
-      <c r="D101" s="1">
+      <c r="D101" s="2">
         <v>581.71692632429995</v>
       </c>
-      <c r="E101" s="1">
+      <c r="E101" s="2">
         <v>257196.36683000001</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>1</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C102" s="1">
+      <c r="C102" s="2">
         <v>124567.25285471999</v>
       </c>
-      <c r="D102" s="1">
+      <c r="D102" s="2">
         <v>1295.4982863537</v>
       </c>
-      <c r="E102" s="1">
+      <c r="E102" s="2">
         <v>106335.431345</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>1</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C103" s="1">
+      <c r="C103" s="2">
         <v>19412.312899460001</v>
       </c>
-      <c r="D103" s="1">
+      <c r="D103" s="2">
         <v>681.31214835970002</v>
       </c>
-      <c r="E103" s="1">
+      <c r="E103" s="2">
         <v>570.22568187000002</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>1</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C104" s="1">
+      <c r="C104" s="2">
         <v>625.05432445820009</v>
       </c>
-      <c r="D104" s="1">
+      <c r="D104" s="2">
         <v>9.4311422560680001</v>
       </c>
-      <c r="E104" s="1">
+      <c r="E104" s="2">
         <v>3690.0014892000004</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>1</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C105" s="1">
+      <c r="C105" s="2">
         <v>3415.8026025240006</v>
       </c>
-      <c r="D105" s="1">
-        <v>0</v>
-      </c>
-      <c r="E105" s="1">
+      <c r="D105" s="2">
+        <v>0</v>
+      </c>
+      <c r="E105" s="2">
         <v>68396.847558000009</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>1</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C106" s="2">
         <v>201665.26891160003</v>
       </c>
-      <c r="D106" s="1">
+      <c r="D106" s="2">
         <v>3115.7519424460002</v>
       </c>
-      <c r="E106" s="1">
+      <c r="E106" s="2">
         <v>586475.60218000005</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>1</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C107" s="1">
+      <c r="C107" s="2">
         <v>10111.251844876</v>
       </c>
-      <c r="D107" s="1">
+      <c r="D107" s="2">
         <v>266.71804005210004</v>
       </c>
-      <c r="E107" s="1">
+      <c r="E107" s="2">
         <v>59.673863340000004</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>1</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C108" s="1">
+      <c r="C108" s="2">
         <v>402830.14509399998</v>
       </c>
-      <c r="D108" s="1">
+      <c r="D108" s="2">
         <v>5169.3067603190002</v>
       </c>
-      <c r="E108" s="1">
+      <c r="E108" s="2">
         <v>1460116.2914</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>1</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C109" s="1">
+      <c r="C109" s="2">
         <v>645.24371593500007</v>
       </c>
-      <c r="D109" s="1">
-        <v>0</v>
-      </c>
-      <c r="E109" s="1">
+      <c r="D109" s="2">
+        <v>0</v>
+      </c>
+      <c r="E109" s="2">
         <v>104974.54834100002</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>1</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C110" s="1">
+      <c r="C110" s="2">
         <v>53960.805149680004</v>
       </c>
-      <c r="D110" s="1">
+      <c r="D110" s="2">
         <v>755.28780764970008</v>
       </c>
-      <c r="E110" s="1">
+      <c r="E110" s="2">
         <v>284902.59031</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>1</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C111" s="1">
-        <v>0</v>
-      </c>
-      <c r="D111" s="1">
-        <v>0</v>
-      </c>
-      <c r="E111" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C111" s="2">
+        <v>0</v>
+      </c>
+      <c r="D111" s="2">
+        <v>0</v>
+      </c>
+      <c r="E111" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>1</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C112" s="1">
+      <c r="C112" s="2">
         <v>2105130.640964</v>
       </c>
-      <c r="D112" s="1">
+      <c r="D112" s="2">
         <v>29417.02097464</v>
       </c>
-      <c r="E112" s="1">
+      <c r="E112" s="2">
         <v>7812546.3142999997</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>1</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C113" s="1">
+      <c r="C113" s="2">
         <v>50879.336706900001</v>
       </c>
-      <c r="D113" s="1">
+      <c r="D113" s="2">
         <v>591.9807325406</v>
       </c>
-      <c r="E113" s="1">
+      <c r="E113" s="2">
         <v>236084.97367000001</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>1</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C114" s="1">
+      <c r="C114" s="2">
         <v>907.21523677070013</v>
       </c>
-      <c r="D114" s="1">
-        <v>0</v>
-      </c>
-      <c r="E114" s="1">
+      <c r="D114" s="2">
+        <v>0</v>
+      </c>
+      <c r="E114" s="2">
         <v>15745.041247000001</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>1</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C115" s="1">
+      <c r="C115" s="2">
         <v>21975.939011910003</v>
       </c>
-      <c r="D115" s="1">
+      <c r="D115" s="2">
         <v>257.08137659490001</v>
       </c>
-      <c r="E115" s="1">
+      <c r="E115" s="2">
         <v>140770.83566000001</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>1</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C116" s="1">
+      <c r="C116" s="2">
         <v>13982.588815000001</v>
       </c>
-      <c r="D116" s="1">
-        <v>0</v>
-      </c>
-      <c r="E116" s="1">
+      <c r="D116" s="2">
+        <v>0</v>
+      </c>
+      <c r="E116" s="2">
         <v>2486817.4903000002</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>1</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C117" s="1">
+      <c r="C117" s="2">
         <v>7673.9947331450003</v>
       </c>
-      <c r="D117" s="1">
+      <c r="D117" s="2">
         <v>179.88311219319999</v>
       </c>
-      <c r="E117" s="1">
+      <c r="E117" s="2">
         <v>1883736.439</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>1</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C118" s="1">
+      <c r="C118" s="2">
         <v>3.1168067547630001</v>
       </c>
-      <c r="D118" s="1">
-        <v>0</v>
-      </c>
-      <c r="E118" s="1">
+      <c r="D118" s="2">
+        <v>0</v>
+      </c>
+      <c r="E118" s="2">
         <v>5724249.7585000005</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>1</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C119" s="1">
+      <c r="C119" s="2">
         <v>12709.522655960001</v>
       </c>
-      <c r="D119" s="1">
+      <c r="D119" s="2">
         <v>432.71109126570002</v>
       </c>
-      <c r="E119" s="1">
+      <c r="E119" s="2">
         <v>49406.712758000001</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>1</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C120" s="1">
+      <c r="C120" s="2">
         <v>12534.102656829002</v>
       </c>
-      <c r="D120" s="1">
+      <c r="D120" s="2">
         <v>464.32959516060004</v>
       </c>
-      <c r="E120" s="1">
+      <c r="E120" s="2">
         <v>260.7839247</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>1</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C121" s="1">
+      <c r="C121" s="2">
         <v>7956.1616765540002</v>
       </c>
-      <c r="D121" s="1">
+      <c r="D121" s="2">
         <v>31.261837447620003</v>
       </c>
-      <c r="E121" s="1">
+      <c r="E121" s="2">
         <v>332511.91636000003</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>1</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C122" s="1">
+      <c r="C122" s="2">
         <v>741.24308049609999</v>
       </c>
-      <c r="D122" s="1">
-        <v>0</v>
-      </c>
-      <c r="E122" s="1">
+      <c r="D122" s="2">
+        <v>0</v>
+      </c>
+      <c r="E122" s="2">
         <v>2802483.3954000003</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>1</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C123" s="1">
+      <c r="C123" s="2">
         <v>3760.0268216159998</v>
       </c>
-      <c r="D123" s="1">
+      <c r="D123" s="2">
         <v>1.0423231489346001</v>
       </c>
-      <c r="E123" s="1">
+      <c r="E123" s="2">
         <v>1215323.5201900001</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>1</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C124" s="1">
+      <c r="C124" s="2">
         <v>2065.0225361090002</v>
       </c>
-      <c r="D124" s="1">
-        <v>0</v>
-      </c>
-      <c r="E124" s="1">
+      <c r="D124" s="2">
+        <v>0</v>
+      </c>
+      <c r="E124" s="2">
         <v>19836.59821</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>1</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C125" s="1">
+      <c r="C125" s="2">
         <v>12769.34928113</v>
       </c>
-      <c r="D125" s="1">
+      <c r="D125" s="2">
         <v>14.140969327680001</v>
       </c>
-      <c r="E125" s="1">
+      <c r="E125" s="2">
         <v>955270.88176000002</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>1</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C126" s="1">
+      <c r="C126" s="2">
         <v>2299.5433294859999</v>
       </c>
-      <c r="D126" s="1">
-        <v>0</v>
-      </c>
-      <c r="E126" s="1">
+      <c r="D126" s="2">
+        <v>0</v>
+      </c>
+      <c r="E126" s="2">
         <v>74330.866662</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>1</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C127" s="1">
-        <v>0</v>
-      </c>
-      <c r="D127" s="1">
-        <v>0</v>
-      </c>
-      <c r="E127" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C127" s="2">
+        <v>0</v>
+      </c>
+      <c r="D127" s="2">
+        <v>0</v>
+      </c>
+      <c r="E127" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>1</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C128" s="1">
+      <c r="C128" s="2">
         <v>51200.514895790009</v>
       </c>
-      <c r="D128" s="1">
+      <c r="D128" s="2">
         <v>27.724460246989999</v>
       </c>
-      <c r="E128" s="1">
+      <c r="E128" s="2">
         <v>4100867.0729</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>1</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C129" s="1">
+      <c r="C129" s="2">
         <v>73839.898738839998</v>
       </c>
-      <c r="D129" s="1">
+      <c r="D129" s="2">
         <v>892.17979315920002</v>
       </c>
-      <c r="E129" s="1">
+      <c r="E129" s="2">
         <v>32405.854663000002</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>1</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C130" s="1">
+      <c r="C130" s="2">
         <v>169726.0329128</v>
       </c>
-      <c r="D130" s="1">
+      <c r="D130" s="2">
         <v>1593.8897463840001</v>
       </c>
-      <c r="E130" s="1">
+      <c r="E130" s="2">
         <v>16134497.366</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>1</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C131" s="1">
+      <c r="C131" s="2">
         <v>90393.709207880005</v>
       </c>
-      <c r="D131" s="1">
+      <c r="D131" s="2">
         <v>902.10072495140003</v>
       </c>
-      <c r="E131" s="1">
+      <c r="E131" s="2">
         <v>37378.440033999999</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>1</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C132" s="1">
+      <c r="C132" s="2">
         <v>775.89503463810001</v>
       </c>
-      <c r="D132" s="1">
+      <c r="D132" s="2">
         <v>14.21777689722</v>
       </c>
-      <c r="E132" s="1">
+      <c r="E132" s="2">
         <v>23.843106988999999</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>1</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C133" s="1">
+      <c r="C133" s="2">
         <v>11639.957774847999</v>
       </c>
-      <c r="D133" s="1">
+      <c r="D133" s="2">
         <v>206.9144906686</v>
       </c>
-      <c r="E133" s="1">
+      <c r="E133" s="2">
         <v>4671.0151773999996</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>1</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C134" s="1">
+      <c r="C134" s="2">
         <v>17.25560217628</v>
       </c>
-      <c r="D134" s="1">
+      <c r="D134" s="2">
         <v>0.31987889069500003</v>
       </c>
-      <c r="E134" s="1">
+      <c r="E134" s="2">
         <v>7.37389029E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>1</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C135" s="1">
+      <c r="C135" s="2">
         <v>185.70065515300001</v>
       </c>
-      <c r="D135" s="1">
+      <c r="D135" s="2">
         <v>3.4324760240159997</v>
       </c>
-      <c r="E135" s="1">
+      <c r="E135" s="2">
         <v>2.0892475422000003</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>1</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C136" s="1">
+      <c r="C136" s="2">
         <v>705609.81115039997</v>
       </c>
-      <c r="D136" s="1">
+      <c r="D136" s="2">
         <v>18324.892042990003</v>
       </c>
-      <c r="E136" s="1">
+      <c r="E136" s="2">
         <v>11641771.225500001</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>1</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C137" s="1">
+      <c r="C137" s="2">
         <v>10661.106482884001</v>
       </c>
-      <c r="D137" s="1">
+      <c r="D137" s="2">
         <v>188.9443588565</v>
       </c>
-      <c r="E137" s="1">
+      <c r="E137" s="2">
         <v>4671.0151773999996</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>1</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C138" s="1">
+      <c r="C138" s="2">
         <v>27613.177255300001</v>
       </c>
-      <c r="D138" s="1">
+      <c r="D138" s="2">
         <v>578.17124349400001</v>
       </c>
-      <c r="E138" s="1">
+      <c r="E138" s="2">
         <v>1403.1765930000001</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>1</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C139" s="1">
+      <c r="C139" s="2">
         <v>681.20419726710008</v>
       </c>
-      <c r="D139" s="1">
-        <v>0</v>
-      </c>
-      <c r="E139" s="1">
+      <c r="D139" s="2">
+        <v>0</v>
+      </c>
+      <c r="E139" s="2">
         <v>327035.59304000001</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>1</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C140" s="1">
+      <c r="C140" s="2">
         <v>67294.093777300004</v>
       </c>
-      <c r="D140" s="1">
+      <c r="D140" s="2">
         <v>2414.2713679110002</v>
       </c>
-      <c r="E140" s="1">
+      <c r="E140" s="2">
         <v>25817.462892</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>1</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C141" s="1">
+      <c r="C141" s="2">
         <v>46361.603553330002</v>
       </c>
-      <c r="D141" s="1">
-        <v>0</v>
-      </c>
-      <c r="E141" s="1">
+      <c r="D141" s="2">
+        <v>0</v>
+      </c>
+      <c r="E141" s="2">
         <v>1242865.4793100001</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>1</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C142" s="1">
+      <c r="C142" s="2">
         <v>33947.408829879998</v>
       </c>
-      <c r="D142" s="1">
+      <c r="D142" s="2">
         <v>600.89314274989999</v>
       </c>
-      <c r="E142" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E142" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>1</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C143" s="1">
+      <c r="C143" s="2">
         <v>4220.6072959050007</v>
       </c>
-      <c r="D143" s="1">
+      <c r="D143" s="2">
         <v>87.557667036840002</v>
       </c>
-      <c r="E143" s="1">
+      <c r="E143" s="2">
         <v>2994.0439321000003</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>1</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C144" s="1">
+      <c r="C144" s="2">
         <v>31821.3090065</v>
       </c>
-      <c r="D144" s="1">
+      <c r="D144" s="2">
         <v>152.81419333440002</v>
       </c>
-      <c r="E144" s="1">
+      <c r="E144" s="2">
         <v>657138.01777000003</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>1</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C145" s="1">
+      <c r="C145" s="2">
         <v>5223425.0438369997</v>
       </c>
-      <c r="D145" s="1">
+      <c r="D145" s="2">
         <v>79097.88704129</v>
       </c>
-      <c r="E145" s="1">
+      <c r="E145" s="2">
         <v>13499494.216</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>1</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C146" s="1">
+      <c r="C146" s="2">
         <v>481245.95610520005</v>
       </c>
-      <c r="D146" s="1">
+      <c r="D146" s="2">
         <v>8147.7422736709996</v>
       </c>
-      <c r="E146" s="1">
+      <c r="E146" s="2">
         <v>1147851.3737600001</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>1</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C147" s="1">
+      <c r="C147" s="2">
         <v>7576.7804639150008</v>
       </c>
-      <c r="D147" s="1">
+      <c r="D147" s="2">
         <v>266.5820102088</v>
       </c>
-      <c r="E147" s="1">
+      <c r="E147" s="2">
         <v>6583.6018144</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>1</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C148" s="1">
+      <c r="C148" s="2">
         <v>40029.243251009997</v>
       </c>
-      <c r="D148" s="1">
+      <c r="D148" s="2">
         <v>566.58535517090002</v>
       </c>
-      <c r="E148" s="1">
+      <c r="E148" s="2">
         <v>2040.0754777000002</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>1</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C149" s="1">
+      <c r="C149" s="2">
         <v>35046.637107950002</v>
       </c>
-      <c r="D149" s="1">
+      <c r="D149" s="2">
         <v>38.701705736329998</v>
       </c>
-      <c r="E149" s="1">
+      <c r="E149" s="2">
         <v>19868892.719000001</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>1</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C150" s="1">
+      <c r="C150" s="2">
         <v>536254.49077200005</v>
       </c>
-      <c r="D150" s="1">
+      <c r="D150" s="2">
         <v>17040.556362179999</v>
       </c>
-      <c r="E150" s="1">
+      <c r="E150" s="2">
         <v>34628.995596000001</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>1</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C151" s="1">
+      <c r="C151" s="2">
         <v>35412.49911407</v>
       </c>
-      <c r="D151" s="1">
+      <c r="D151" s="2">
         <v>15.291115080150002</v>
       </c>
-      <c r="E151" s="1">
+      <c r="E151" s="2">
         <v>1300374.4883999999</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>1</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C152" s="1">
+      <c r="C152" s="2">
         <v>1781240.277128</v>
       </c>
-      <c r="D152" s="1">
+      <c r="D152" s="2">
         <v>66054.183724100003</v>
       </c>
-      <c r="E152" s="1">
+      <c r="E152" s="2">
         <v>826424.26451000012</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>1</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C153" s="1">
+      <c r="C153" s="2">
         <v>309888.81586780003</v>
       </c>
-      <c r="D153" s="1">
+      <c r="D153" s="2">
         <v>13030.799389530001</v>
       </c>
-      <c r="E153" s="1">
+      <c r="E153" s="2">
         <v>168268.9411</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>1</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C154" s="1">
+      <c r="C154" s="2">
         <v>6164.7498776499997</v>
       </c>
-      <c r="D154" s="1">
+      <c r="D154" s="2">
         <v>165.99979744660001</v>
       </c>
-      <c r="E154" s="1">
+      <c r="E154" s="2">
         <v>1129.80462543</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>1</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C155" s="1">
+      <c r="C155" s="2">
         <v>133.70831562790002</v>
       </c>
-      <c r="D155" s="1">
-        <v>0</v>
-      </c>
-      <c r="E155" s="1">
+      <c r="D155" s="2">
+        <v>0</v>
+      </c>
+      <c r="E155" s="2">
         <v>29169.349676999998</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>1</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C156" s="1">
+      <c r="C156" s="2">
         <v>13403.89704641</v>
       </c>
-      <c r="D156" s="1">
+      <c r="D156" s="2">
         <v>443.35760724710002</v>
       </c>
-      <c r="E156" s="1">
+      <c r="E156" s="2">
         <v>1002.2673414000001</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>1</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C157" s="1">
+      <c r="C157" s="2">
         <v>2968.3918786210002</v>
       </c>
-      <c r="D157" s="1">
+      <c r="D157" s="2">
         <v>53.361921846739996</v>
       </c>
-      <c r="E157" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E157" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>1</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C158" s="1">
-        <v>0</v>
-      </c>
-      <c r="D158" s="1">
-        <v>0</v>
-      </c>
-      <c r="E158" s="1">
+      <c r="C158" s="2">
+        <v>0</v>
+      </c>
+      <c r="D158" s="2">
+        <v>0</v>
+      </c>
+      <c r="E158" s="2">
         <v>10547792.464300001</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>1</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C159" s="1">
+      <c r="C159" s="2">
         <v>204122.7068751</v>
       </c>
-      <c r="D159" s="1">
+      <c r="D159" s="2">
         <v>5.2369333091530006</v>
       </c>
-      <c r="E159" s="1">
+      <c r="E159" s="2">
         <v>3533513.8591999998</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>1</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C160" s="1">
+      <c r="C160" s="2">
         <v>12.513213110605999</v>
       </c>
-      <c r="D160" s="1">
-        <v>0</v>
-      </c>
-      <c r="E160" s="1">
+      <c r="D160" s="2">
+        <v>0</v>
+      </c>
+      <c r="E160" s="2">
         <v>190.35137017</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>1</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C161" s="1">
+      <c r="C161" s="2">
         <v>128193.74070386001</v>
       </c>
-      <c r="D161" s="1">
+      <c r="D161" s="2">
         <v>2628.336819784</v>
       </c>
-      <c r="E161" s="1">
+      <c r="E161" s="2">
         <v>9523.1695467999998</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>1</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C162" s="1">
+      <c r="C162" s="2">
         <v>6447.6825380890004</v>
       </c>
-      <c r="D162" s="1">
+      <c r="D162" s="2">
         <v>208.67698787129999</v>
       </c>
-      <c r="E162" s="1">
+      <c r="E162" s="2">
         <v>922.7131540900001</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>1</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C163" s="1">
+      <c r="C163" s="2">
         <v>29022.169772440004</v>
       </c>
-      <c r="D163" s="1">
+      <c r="D163" s="2">
         <v>1090.3567912262999</v>
       </c>
-      <c r="E163" s="1">
+      <c r="E163" s="2">
         <v>314.61009151000002</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>1</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C164" s="1">
+      <c r="C164" s="2">
         <v>1967.1835782690002</v>
       </c>
-      <c r="D164" s="1">
+      <c r="D164" s="2">
         <v>81.297462727129997</v>
       </c>
-      <c r="E164" s="1">
+      <c r="E164" s="2">
         <v>49.596657968000002</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>1</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C165" s="1">
+      <c r="C165" s="2">
         <v>11574.024656987</v>
       </c>
-      <c r="D165" s="1">
+      <c r="D165" s="2">
         <v>391.89224055670002</v>
       </c>
-      <c r="E165" s="1">
+      <c r="E165" s="2">
         <v>252.82546029000002</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>1</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C166" s="1">
+      <c r="C166" s="2">
         <v>8299.5099398250004</v>
       </c>
-      <c r="D166" s="1">
+      <c r="D166" s="2">
         <v>361.1797772063</v>
       </c>
-      <c r="E166" s="1">
+      <c r="E166" s="2">
         <v>220.42259161000001</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>1</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C167" s="1">
+      <c r="C167" s="2">
         <v>7181.4515973329999</v>
       </c>
-      <c r="D167" s="1">
+      <c r="D167" s="2">
         <v>255.9873107363</v>
       </c>
-      <c r="E167" s="1">
+      <c r="E167" s="2">
         <v>160.88056426</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>1</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C168" s="1">
+      <c r="C168" s="2">
         <v>385304.66047320003</v>
       </c>
-      <c r="D168" s="1">
-        <v>0</v>
-      </c>
-      <c r="E168" s="1">
+      <c r="D168" s="2">
+        <v>0</v>
+      </c>
+      <c r="E168" s="2">
         <v>3369468.1669999999</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>1</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C169" s="1">
+      <c r="C169" s="2">
         <v>265257.1252903</v>
       </c>
-      <c r="D169" s="1">
-        <v>0</v>
-      </c>
-      <c r="E169" s="1">
+      <c r="D169" s="2">
+        <v>0</v>
+      </c>
+      <c r="E169" s="2">
         <v>2406533.6217</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>1</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C170" s="1">
+      <c r="C170" s="2">
         <v>1910823.8556679999</v>
       </c>
-      <c r="D170" s="1">
+      <c r="D170" s="2">
         <v>26177.633974180004</v>
       </c>
-      <c r="E170" s="1">
+      <c r="E170" s="2">
         <v>83973.712562999994</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>1</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C171" s="1">
-        <v>0</v>
-      </c>
-      <c r="D171" s="1">
-        <v>0</v>
-      </c>
-      <c r="E171" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C171" s="2">
+        <v>0</v>
+      </c>
+      <c r="D171" s="2">
+        <v>0</v>
+      </c>
+      <c r="E171" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>1</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C172" s="1">
+      <c r="C172" s="2">
         <v>224350.55914310002</v>
       </c>
-      <c r="D172" s="1">
-        <v>0</v>
-      </c>
-      <c r="E172" s="1">
+      <c r="D172" s="2">
+        <v>0</v>
+      </c>
+      <c r="E172" s="2">
         <v>1108619.51642</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>1</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C173" s="1">
+      <c r="C173" s="2">
         <v>172821.44317879999</v>
       </c>
-      <c r="D173" s="1">
+      <c r="D173" s="2">
         <v>2789.9822076619998</v>
       </c>
-      <c r="E173" s="1">
+      <c r="E173" s="2">
         <v>31040.507237999998</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>1</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C174" s="1">
+      <c r="C174" s="2">
         <v>1069.9082013243001</v>
       </c>
-      <c r="D174" s="1">
-        <v>0</v>
-      </c>
-      <c r="E174" s="1">
+      <c r="D174" s="2">
+        <v>0</v>
+      </c>
+      <c r="E174" s="2">
         <v>171454.39051</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>1</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C175" s="1">
+      <c r="C175" s="2">
         <v>2174.7869426790003</v>
       </c>
-      <c r="D175" s="1">
+      <c r="D175" s="2">
         <v>60.600124847080004</v>
       </c>
-      <c r="E175" s="1">
+      <c r="E175" s="2">
         <v>177.1151941</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>1</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C176" s="1">
+      <c r="C176" s="2">
         <v>13913.080847120002</v>
       </c>
-      <c r="D176" s="1">
+      <c r="D176" s="2">
         <v>256.47568429209997</v>
       </c>
-      <c r="E176" s="1">
+      <c r="E176" s="2">
         <v>2700.2617447000002</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>1</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C177" s="1">
+      <c r="C177" s="2">
         <v>26.173187421290002</v>
       </c>
-      <c r="D177" s="1">
+      <c r="D177" s="2">
         <v>0.46093937910670002</v>
       </c>
-      <c r="E177" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E177" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>1</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C178" s="1">
+      <c r="C178" s="2">
         <v>373942.53902590001</v>
       </c>
-      <c r="D178" s="1">
+      <c r="D178" s="2">
         <v>6686.439484855001</v>
       </c>
-      <c r="E178" s="1">
+      <c r="E178" s="2">
         <v>63572.301624</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>1</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C179" s="1">
+      <c r="C179" s="2">
         <v>137704.9234652</v>
       </c>
-      <c r="D179" s="1">
+      <c r="D179" s="2">
         <v>2521.7616811789999</v>
       </c>
-      <c r="E179" s="1">
+      <c r="E179" s="2">
         <v>16671.451524</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>1</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C180" s="1">
+      <c r="C180" s="2">
         <v>67545.231337220001</v>
       </c>
-      <c r="D180" s="1">
+      <c r="D180" s="2">
         <v>1194.2455569746</v>
       </c>
-      <c r="E180" s="1">
+      <c r="E180" s="2">
         <v>20113.421731000002</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>1</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C181" s="1">
+      <c r="C181" s="2">
         <v>22691.173218740001</v>
       </c>
-      <c r="D181" s="1">
+      <c r="D181" s="2">
         <v>365.00588755540002</v>
       </c>
-      <c r="E181" s="1">
+      <c r="E181" s="2">
         <v>8797.3668419000005</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>1</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C182" s="1">
+      <c r="C182" s="2">
         <v>39170.852449950005</v>
       </c>
-      <c r="D182" s="1">
+      <c r="D182" s="2">
         <v>697.79976707349999</v>
       </c>
-      <c r="E182" s="1">
+      <c r="E182" s="2">
         <v>17911.858744000001</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>1</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C183" s="1">
+      <c r="C183" s="2">
         <v>74459.496277530008</v>
       </c>
-      <c r="D183" s="1">
+      <c r="D183" s="2">
         <v>892.5993370658</v>
       </c>
-      <c r="E183" s="1">
+      <c r="E183" s="2">
         <v>594.93389059000003</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>1</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C184" s="1">
+      <c r="C184" s="2">
         <v>748227.08164230001</v>
       </c>
-      <c r="D184" s="1">
+      <c r="D184" s="2">
         <v>9492.2250688460008</v>
       </c>
-      <c r="E184" s="1">
+      <c r="E184" s="2">
         <v>127355.46320900001</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>1</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C185" s="1">
+      <c r="C185" s="2">
         <v>288591.81581619999</v>
       </c>
-      <c r="D185" s="1">
+      <c r="D185" s="2">
         <v>3719.8782764130001</v>
       </c>
-      <c r="E185" s="1">
+      <c r="E185" s="2">
         <v>23338.735745000002</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>1</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C186" s="1">
+      <c r="C186" s="2">
         <v>936005.88529500004</v>
       </c>
-      <c r="D186" s="1">
+      <c r="D186" s="2">
         <v>529.54483225800004</v>
       </c>
-      <c r="E186" s="1">
+      <c r="E186" s="2">
         <v>6905207.6015000008</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>1</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C187" s="1">
+      <c r="C187" s="2">
         <v>3128.1437793969999</v>
       </c>
-      <c r="D187" s="1">
+      <c r="D187" s="2">
         <v>97.167361494450006</v>
       </c>
-      <c r="E187" s="1">
+      <c r="E187" s="2">
         <v>145.79952907000001</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>1</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C188" s="1">
+      <c r="C188" s="2">
         <v>271674.95593160001</v>
       </c>
-      <c r="D188" s="1">
-        <v>0</v>
-      </c>
-      <c r="E188" s="1">
+      <c r="D188" s="2">
+        <v>0</v>
+      </c>
+      <c r="E188" s="2">
         <v>6293570.6444000006</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>1</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C189" s="1">
+      <c r="C189" s="2">
         <v>2195.9087256730004</v>
       </c>
-      <c r="D189" s="1">
+      <c r="D189" s="2">
         <v>48.546934058870001</v>
       </c>
-      <c r="E189" s="1">
+      <c r="E189" s="2">
         <v>672.21215776000008</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>1</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C190" s="1">
+      <c r="C190" s="2">
         <v>718298.73515660001</v>
       </c>
-      <c r="D190" s="1">
+      <c r="D190" s="2">
         <v>12540.735774515</v>
       </c>
-      <c r="E190" s="1">
+      <c r="E190" s="2">
         <v>179707.54840999999</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>1</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C191" s="1">
+      <c r="C191" s="2">
         <v>106059.01839195</v>
       </c>
-      <c r="D191" s="1">
+      <c r="D191" s="2">
         <v>1693.2749224820002</v>
       </c>
-      <c r="E191" s="1">
+      <c r="E191" s="2">
         <v>66143.501762</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>1</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C192" s="1">
+      <c r="C192" s="2">
         <v>108893.89157348</v>
       </c>
-      <c r="D192" s="1">
+      <c r="D192" s="2">
         <v>2863.4478189590004</v>
       </c>
-      <c r="E192" s="1">
+      <c r="E192" s="2">
         <v>1690.7672015000003</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>1</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C193" s="1">
+      <c r="C193" s="2">
         <v>6655.5805904250001</v>
       </c>
-      <c r="D193" s="1">
+      <c r="D193" s="2">
         <v>225.4410814357</v>
       </c>
-      <c r="E193" s="1">
+      <c r="E193" s="2">
         <v>260.54626988000001</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>1</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C194" s="1">
+      <c r="C194" s="2">
         <v>5693.8148214350003</v>
       </c>
-      <c r="D194" s="1">
+      <c r="D194" s="2">
         <v>83.705474140730004</v>
       </c>
-      <c r="E194" s="1">
+      <c r="E194" s="2">
         <v>8185.9333777000002</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>1</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C195" s="1">
+      <c r="C195" s="2">
         <v>563948.14796970005</v>
       </c>
-      <c r="D195" s="1">
+      <c r="D195" s="2">
         <v>305.62699443510002</v>
       </c>
-      <c r="E195" s="1">
+      <c r="E195" s="2">
         <v>4905215.0341999996</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>1</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C196" s="1">
+      <c r="C196" s="2">
         <v>5365.067298383</v>
       </c>
-      <c r="D196" s="1">
+      <c r="D196" s="2">
         <v>98.476924648050002</v>
       </c>
-      <c r="E196" s="1">
+      <c r="E196" s="2">
         <v>7086.6771729000011</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>1</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C197" s="1">
+      <c r="C197" s="2">
         <v>7911.4487973690002</v>
       </c>
-      <c r="D197" s="1">
+      <c r="D197" s="2">
         <v>210.07001572440001</v>
       </c>
-      <c r="E197" s="1">
+      <c r="E197" s="2">
         <v>783.51029665999999</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>1</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C198" s="1">
+      <c r="C198" s="2">
         <v>120047.53518329001</v>
       </c>
-      <c r="D198" s="1">
-        <v>0</v>
-      </c>
-      <c r="E198" s="1">
+      <c r="D198" s="2">
+        <v>0</v>
+      </c>
+      <c r="E198" s="2">
         <v>1228924.7972300001</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>1</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C199" s="1">
+      <c r="C199" s="2">
         <v>436272.87483520003</v>
       </c>
-      <c r="D199" s="1">
+      <c r="D199" s="2">
         <v>2857.4848083209999</v>
       </c>
-      <c r="E199" s="1">
+      <c r="E199" s="2">
         <v>21405028.294000003</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>1</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C200" s="1">
+      <c r="C200" s="2">
         <v>2610578.1536639999</v>
       </c>
-      <c r="D200" s="1">
+      <c r="D200" s="2">
         <v>29178.991906089999</v>
       </c>
-      <c r="E200" s="1">
+      <c r="E200" s="2">
         <v>536939.24063000001</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>1</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C201" s="1">
+      <c r="C201" s="2">
         <v>359195.46738789999</v>
       </c>
-      <c r="D201" s="1">
+      <c r="D201" s="2">
         <v>4057.0114736579999</v>
       </c>
-      <c r="E201" s="1">
+      <c r="E201" s="2">
         <v>90430.203747000007</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>1</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C202" s="1">
+      <c r="C202" s="2">
         <v>1104434.7846103001</v>
       </c>
-      <c r="D202" s="1">
+      <c r="D202" s="2">
         <v>12353.741150465001</v>
       </c>
-      <c r="E202" s="1">
+      <c r="E202" s="2">
         <v>409807.93099999998</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>1</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C203" s="1">
+      <c r="C203" s="2">
         <v>471407.40129470004</v>
       </c>
-      <c r="D203" s="1">
+      <c r="D203" s="2">
         <v>5164.2661014880005</v>
       </c>
-      <c r="E203" s="1">
+      <c r="E203" s="2">
         <v>57369.884662999997</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>1</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C204" s="1">
+      <c r="C204" s="2">
         <v>900881.03686490003</v>
       </c>
-      <c r="D204" s="1">
+      <c r="D204" s="2">
         <v>26062.65688169</v>
       </c>
-      <c r="E204" s="1">
+      <c r="E204" s="2">
         <v>41512.528954000001</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>1</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C205" s="1">
+      <c r="C205" s="2">
         <v>207260.8472363</v>
       </c>
-      <c r="D205" s="1">
+      <c r="D205" s="2">
         <v>2234.2761112100002</v>
       </c>
-      <c r="E205" s="1">
+      <c r="E205" s="2">
         <v>58677.081502000001</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>1</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C206" s="1">
+      <c r="C206" s="2">
         <v>541403.59913250001</v>
       </c>
-      <c r="D206" s="1">
+      <c r="D206" s="2">
         <v>5609.2491975129997</v>
       </c>
-      <c r="E206" s="1">
+      <c r="E206" s="2">
         <v>16342376.089</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>1</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C207" s="1">
+      <c r="C207" s="2">
         <v>10338919.930599</v>
       </c>
-      <c r="D207" s="1">
+      <c r="D207" s="2">
         <v>206020.95854210001</v>
       </c>
-      <c r="E207" s="1">
+      <c r="E207" s="2">
         <v>39453175.372000001</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>1</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C208" s="1">
+      <c r="C208" s="2">
         <v>28245.75426387</v>
       </c>
-      <c r="D208" s="1">
+      <c r="D208" s="2">
         <v>722.7348129157001</v>
       </c>
-      <c r="E208" s="1">
+      <c r="E208" s="2">
         <v>1620.4819566000001</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>1</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C209" s="1">
+      <c r="C209" s="2">
         <v>3207.7914712349998</v>
       </c>
-      <c r="D209" s="1">
+      <c r="D209" s="2">
         <v>111.38077519218</v>
       </c>
-      <c r="E209" s="1">
+      <c r="E209" s="2">
         <v>178.32911967000001</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>1</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C210" s="1">
+      <c r="C210" s="2">
         <v>1.1601056906478</v>
       </c>
-      <c r="D210" s="1">
-        <v>0</v>
-      </c>
-      <c r="E210" s="1">
+      <c r="D210" s="2">
+        <v>0</v>
+      </c>
+      <c r="E210" s="2">
         <v>105.801913724</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>1</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C211" s="1">
+      <c r="C211" s="2">
         <v>3206.6313655480003</v>
       </c>
-      <c r="D211" s="1">
+      <c r="D211" s="2">
         <v>111.38077519218</v>
       </c>
-      <c r="E211" s="1">
+      <c r="E211" s="2">
         <v>149.81197295999999</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>1</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C212" s="1">
+      <c r="C212" s="2">
         <v>9693.078726695001</v>
       </c>
-      <c r="D212" s="1">
+      <c r="D212" s="2">
         <v>112.67367061041</v>
       </c>
-      <c r="E212" s="1">
+      <c r="E212" s="2">
         <v>150473.65788000001</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>1</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C213" s="1">
+      <c r="C213" s="2">
         <v>285030.92142329999</v>
       </c>
-      <c r="D213" s="1">
+      <c r="D213" s="2">
         <v>827.27127561520001</v>
       </c>
-      <c r="E213" s="1">
+      <c r="E213" s="2">
         <v>23107154.109000001</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>1</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C214" s="1">
-        <v>0</v>
-      </c>
-      <c r="D214" s="1">
-        <v>0</v>
-      </c>
-      <c r="E214" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C214" s="2">
+        <v>0</v>
+      </c>
+      <c r="D214" s="2">
+        <v>0</v>
+      </c>
+      <c r="E214" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>1</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C215" s="1">
+      <c r="C215" s="2">
         <v>149053.7840857</v>
       </c>
-      <c r="D215" s="1">
+      <c r="D215" s="2">
         <v>254.58660029660001</v>
       </c>
-      <c r="E215" s="1">
+      <c r="E215" s="2">
         <v>335839.44160000002</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>1</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C216" s="1">
+      <c r="C216" s="2">
         <v>71815.376781590006</v>
       </c>
-      <c r="D216" s="1">
-        <v>0</v>
-      </c>
-      <c r="E216" s="1">
+      <c r="D216" s="2">
+        <v>0</v>
+      </c>
+      <c r="E216" s="2">
         <v>24314626.141000003</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>1</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C217" s="1">
+      <c r="C217" s="2">
         <v>1657.159046946</v>
       </c>
-      <c r="D217" s="1">
+      <c r="D217" s="2">
         <v>14.395130742719999</v>
       </c>
-      <c r="E217" s="1">
+      <c r="E217" s="2">
         <v>22727.889794999999</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>1</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C218" s="1">
+      <c r="C218" s="2">
         <v>39329.728475049997</v>
       </c>
-      <c r="D218" s="1">
-        <v>0</v>
-      </c>
-      <c r="E218" s="1">
+      <c r="D218" s="2">
+        <v>0</v>
+      </c>
+      <c r="E218" s="2">
         <v>655370.04324999999</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>1</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C219" s="1">
+      <c r="C219" s="2">
         <v>14243.60695069</v>
       </c>
-      <c r="D219" s="1">
+      <c r="D219" s="2">
         <v>370.19085554230003</v>
       </c>
-      <c r="E219" s="1">
+      <c r="E219" s="2">
         <v>7455.4723854000003</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>1</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C220" s="1">
+      <c r="C220" s="2">
         <v>103705.81574106</v>
       </c>
-      <c r="D220" s="1">
+      <c r="D220" s="2">
         <v>2706.6219227060001</v>
       </c>
-      <c r="E220" s="1">
+      <c r="E220" s="2">
         <v>426438.09572000004</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>1</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C221" s="1">
+      <c r="C221" s="2">
         <v>27988.275114670003</v>
       </c>
-      <c r="D221" s="1">
+      <c r="D221" s="2">
         <v>128.76474361140001</v>
       </c>
-      <c r="E221" s="1">
+      <c r="E221" s="2">
         <v>182984.95254000003</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>1</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C222" s="1">
+      <c r="C222" s="2">
         <v>11320.138865854</v>
       </c>
-      <c r="D222" s="1">
+      <c r="D222" s="2">
         <v>199.43478442290004</v>
       </c>
-      <c r="E222" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E222" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>1</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C223" s="1">
+      <c r="C223" s="2">
         <v>319407.04636360001</v>
       </c>
-      <c r="D223" s="1">
+      <c r="D223" s="2">
         <v>3751.8625290639998</v>
       </c>
-      <c r="E223" s="1">
+      <c r="E223" s="2">
         <v>8414700.8620999996</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>1</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C224" s="1">
+      <c r="C224" s="2">
         <v>512649.60336200002</v>
       </c>
-      <c r="D224" s="1">
+      <c r="D224" s="2">
         <v>5540.0066209799998</v>
       </c>
-      <c r="E224" s="1">
+      <c r="E224" s="2">
         <v>274175.68906</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>1</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C225" s="1">
+      <c r="C225" s="2">
         <v>27036.54677347</v>
       </c>
-      <c r="D225" s="1">
+      <c r="D225" s="2">
         <v>568.22946577800008</v>
       </c>
-      <c r="E225" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E225" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>1</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C226" s="1">
+      <c r="C226" s="2">
         <v>5966.559594073</v>
       </c>
-      <c r="D226" s="1">
+      <c r="D226" s="2">
         <v>67.815518963789998</v>
       </c>
-      <c r="E226" s="1">
+      <c r="E226" s="2">
         <v>12184.1769231</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>1</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C227" s="1">
+      <c r="C227" s="2">
         <v>112450.93645812001</v>
       </c>
-      <c r="D227" s="1">
+      <c r="D227" s="2">
         <v>1789.8110004970001</v>
       </c>
-      <c r="E227" s="1">
+      <c r="E227" s="2">
         <v>538910.39578999998</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>1</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C228" s="1">
+      <c r="C228" s="2">
         <v>20714.442009300001</v>
       </c>
-      <c r="D228" s="1">
+      <c r="D228" s="2">
         <v>16.722683707600002</v>
       </c>
-      <c r="E228" s="1">
+      <c r="E228" s="2">
         <v>582102.13165</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>1</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C229" s="1">
+      <c r="C229" s="2">
         <v>10617.227773087001</v>
       </c>
-      <c r="D229" s="1">
+      <c r="D229" s="2">
         <v>187.84590646769999</v>
       </c>
-      <c r="E229" s="1">
+      <c r="E229" s="2">
         <v>286988.06916000001</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>1</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C230" s="1">
+      <c r="C230" s="2">
         <v>157.8641896117</v>
       </c>
-      <c r="D230" s="1">
+      <c r="D230" s="2">
         <v>2.1215005926270001</v>
       </c>
-      <c r="E230" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E230" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>1</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C231" s="1">
+      <c r="C231" s="2">
         <v>83858.774653810004</v>
       </c>
-      <c r="D231" s="1">
+      <c r="D231" s="2">
         <v>1766.707402174</v>
       </c>
-      <c r="E231" s="1">
+      <c r="E231" s="2">
         <v>6764.3917510000001</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>1</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C232" s="1">
+      <c r="C232" s="2">
         <v>55975.303812090002</v>
       </c>
-      <c r="D232" s="1">
+      <c r="D232" s="2">
         <v>996.43490379680009</v>
       </c>
-      <c r="E232" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E232" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>1</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C233" s="1">
+      <c r="C233" s="2">
         <v>376244.9701101</v>
       </c>
-      <c r="D233" s="1">
+      <c r="D233" s="2">
         <v>4802.8052468240003</v>
       </c>
-      <c r="E233" s="1">
+      <c r="E233" s="2">
         <v>36453.338896000001</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>1</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C234" s="1">
+      <c r="C234" s="2">
         <v>41837.650652200005</v>
       </c>
-      <c r="D234" s="1">
-        <v>0</v>
-      </c>
-      <c r="E234" s="1">
+      <c r="D234" s="2">
+        <v>0</v>
+      </c>
+      <c r="E234" s="2">
         <v>571348.81193000008</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>1</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C235" s="1">
+      <c r="C235" s="2">
         <v>114282.35889122001</v>
       </c>
-      <c r="D235" s="1">
+      <c r="D235" s="2">
         <v>233.29727233930001</v>
       </c>
-      <c r="E235" s="1">
+      <c r="E235" s="2">
         <v>1201182.4435000001</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>1</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C236" s="1">
+      <c r="C236" s="2">
         <v>9907.969827560999</v>
       </c>
-      <c r="D236" s="1">
+      <c r="D236" s="2">
         <v>8.5374117746190006</v>
       </c>
-      <c r="E236" s="1">
+      <c r="E236" s="2">
         <v>339530.01835999999</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>1</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C237" s="1">
+      <c r="C237" s="2">
         <v>585146.79116270004</v>
       </c>
-      <c r="D237" s="1">
+      <c r="D237" s="2">
         <v>6701.8724555250001</v>
       </c>
-      <c r="E237" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E237" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>1</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C238" s="1">
+      <c r="C238" s="2">
         <v>51255.892534600003</v>
       </c>
-      <c r="D238" s="1">
+      <c r="D238" s="2">
         <v>1153.6395941278001</v>
       </c>
-      <c r="E238" s="1">
+      <c r="E238" s="2">
         <v>2972.8016122999998</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>1</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C239" s="1">
+      <c r="C239" s="2">
         <v>22873.487790269999</v>
       </c>
-      <c r="D239" s="1">
+      <c r="D239" s="2">
         <v>169.5478335057</v>
       </c>
-      <c r="E239" s="1">
+      <c r="E239" s="2">
         <v>135.54296340000002</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>1</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C240" s="1">
+      <c r="C240" s="2">
         <v>2269477.7414660002</v>
       </c>
-      <c r="D240" s="1">
+      <c r="D240" s="2">
         <v>17730.34970499</v>
       </c>
-      <c r="E240" s="1">
+      <c r="E240" s="2">
         <v>31287681.333999999</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>1</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C241" s="1">
+      <c r="C241" s="2">
         <v>2810.647248279</v>
       </c>
-      <c r="D241" s="1">
+      <c r="D241" s="2">
         <v>67.152917748280004</v>
       </c>
-      <c r="E241" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E241" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>1</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C242" s="1">
+      <c r="C242" s="2">
         <v>18716.191516490002</v>
       </c>
-      <c r="D242" s="1">
-        <v>0</v>
-      </c>
-      <c r="E242" s="1">
+      <c r="D242" s="2">
+        <v>0</v>
+      </c>
+      <c r="E242" s="2">
         <v>642120.58859000006</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>1</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C243" s="1">
+      <c r="C243" s="2">
         <v>4397.0833463700001</v>
       </c>
-      <c r="D243" s="1">
+      <c r="D243" s="2">
         <v>134.8441348787</v>
       </c>
-      <c r="E243" s="1">
+      <c r="E243" s="2">
         <v>234.37711362000002</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>1</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C244" s="1">
+      <c r="C244" s="2">
         <v>543.69558924850003</v>
       </c>
-      <c r="D244" s="1">
+      <c r="D244" s="2">
         <v>17.828816548919999</v>
       </c>
-      <c r="E244" s="1">
+      <c r="E244" s="2">
         <v>661.38131007000004</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>1</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C245" s="1">
+      <c r="C245" s="2">
         <v>5585.7031701510004</v>
       </c>
-      <c r="D245" s="1">
+      <c r="D245" s="2">
         <v>64.830860914300004</v>
       </c>
-      <c r="E245" s="1">
+      <c r="E245" s="2">
         <v>31994.807091000002</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>1</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C246" s="1">
+      <c r="C246" s="2">
         <v>21088.136532970002</v>
       </c>
-      <c r="D246" s="1">
-        <v>0</v>
-      </c>
-      <c r="E246" s="1">
+      <c r="D246" s="2">
+        <v>0</v>
+      </c>
+      <c r="E246" s="2">
         <v>707272.28520000004</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>1</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C247" s="1">
+      <c r="C247" s="2">
         <v>8035.4635254790001</v>
       </c>
-      <c r="D247" s="1">
+      <c r="D247" s="2">
         <v>7.6621793010359998</v>
       </c>
-      <c r="E247" s="1">
+      <c r="E247" s="2">
         <v>165532.71747999999</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>1</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C248" s="1">
+      <c r="C248" s="2">
         <v>8963.2749164140005</v>
       </c>
-      <c r="D248" s="1">
+      <c r="D248" s="2">
         <v>4.1004085611449996</v>
       </c>
-      <c r="E248" s="1">
+      <c r="E248" s="2">
         <v>1598565.0538000001</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>1</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C249" s="1">
+      <c r="C249" s="2">
         <v>27099.891041730003</v>
       </c>
-      <c r="D249" s="1">
+      <c r="D249" s="2">
         <v>255.10967657500001</v>
       </c>
-      <c r="E249" s="1">
+      <c r="E249" s="2">
         <v>178221.64893000002</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>1</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C250" s="1">
+      <c r="C250" s="2">
         <v>93201.581504850008</v>
       </c>
-      <c r="D250" s="1">
+      <c r="D250" s="2">
         <v>1113.598715268</v>
       </c>
-      <c r="E250" s="1">
+      <c r="E250" s="2">
         <v>831916.49814000004</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>1</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C251" s="1">
+      <c r="C251" s="2">
         <v>35908.565775290001</v>
       </c>
-      <c r="D251" s="1">
+      <c r="D251" s="2">
         <v>473.42084507639998</v>
       </c>
-      <c r="E251" s="1">
+      <c r="E251" s="2">
         <v>257197.64655</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>1</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C252" s="1">
+      <c r="C252" s="2">
         <v>9014.2590245890005</v>
       </c>
-      <c r="D252" s="1">
+      <c r="D252" s="2">
         <v>226.44255924550001</v>
       </c>
-      <c r="E252" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E252" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>1</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C253" s="1">
+      <c r="C253" s="2">
         <v>11374.493238589001</v>
       </c>
-      <c r="D253" s="1">
-        <v>0</v>
-      </c>
-      <c r="E253" s="1">
+      <c r="D253" s="2">
+        <v>0</v>
+      </c>
+      <c r="E253" s="2">
         <v>127076.576432</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>1</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C254" s="1">
+      <c r="C254" s="2">
         <v>34325.659870449999</v>
       </c>
-      <c r="D254" s="1">
+      <c r="D254" s="2">
         <v>44.151932111039997</v>
       </c>
-      <c r="E254" s="1">
+      <c r="E254" s="2">
         <v>929462.58236</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>1</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C255" s="1">
+      <c r="C255" s="2">
         <v>9912.5099479769997</v>
       </c>
-      <c r="D255" s="1">
+      <c r="D255" s="2">
         <v>307.23605292640002</v>
       </c>
-      <c r="E255" s="1">
+      <c r="E255" s="2">
         <v>861.41612687000008</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>1</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C256" s="1">
+      <c r="C256" s="2">
         <v>15238.488739890001</v>
       </c>
-      <c r="D256" s="1">
+      <c r="D256" s="2">
         <v>577.80588289059995</v>
       </c>
-      <c r="E256" s="1">
+      <c r="E256" s="2">
         <v>324.11316613000002</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>1</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C257" s="1">
+      <c r="C257" s="2">
         <v>9847.4344309509997</v>
       </c>
-      <c r="D257" s="1">
+      <c r="D257" s="2">
         <v>286.07007739049999</v>
       </c>
-      <c r="E257" s="1">
+      <c r="E257" s="2">
         <v>683.01705952999998</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>1</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C258" s="1">
+      <c r="C258" s="2">
         <v>33828.706731170001</v>
       </c>
-      <c r="D258" s="1">
+      <c r="D258" s="2">
         <v>651.54178051430006</v>
       </c>
-      <c r="E258" s="1">
+      <c r="E258" s="2">
         <v>394.27795355000001</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>1</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C259" s="1">
+      <c r="C259" s="2">
         <v>4302.6119153290001</v>
       </c>
-      <c r="D259" s="1">
+      <c r="D259" s="2">
         <v>62.72016545951</v>
       </c>
-      <c r="E259" s="1">
+      <c r="E259" s="2">
         <v>299.39976573000001</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>1</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C260" s="1">
+      <c r="C260" s="2">
         <v>4466.3362084769997</v>
       </c>
-      <c r="D260" s="1">
+      <c r="D260" s="2">
         <v>238.02676377220001</v>
       </c>
-      <c r="E260" s="1">
+      <c r="E260" s="2">
         <v>7556.6387974999998</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>1</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C261" s="1">
+      <c r="C261" s="2">
         <v>350506.19317740004</v>
       </c>
-      <c r="D261" s="1">
+      <c r="D261" s="2">
         <v>6189.0655330139998</v>
       </c>
-      <c r="E261" s="1">
+      <c r="E261" s="2">
         <v>79540.042101000014</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>1</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C262" s="1">
+      <c r="C262" s="2">
         <v>84583.357450800002</v>
       </c>
-      <c r="D262" s="1">
+      <c r="D262" s="2">
         <v>2389.7261807250002</v>
       </c>
-      <c r="E262" s="1">
+      <c r="E262" s="2">
         <v>345573.86084000004</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>1</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C263" s="1">
+      <c r="C263" s="2">
         <v>17278.35268991</v>
       </c>
-      <c r="D263" s="1">
-        <v>0</v>
-      </c>
-      <c r="E263" s="1">
+      <c r="D263" s="2">
+        <v>0</v>
+      </c>
+      <c r="E263" s="2">
         <v>2682171.3892999999</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>1</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C264" s="1">
+      <c r="C264" s="2">
         <v>1521.0657222280001</v>
       </c>
-      <c r="D264" s="1">
+      <c r="D264" s="2">
         <v>7.4807767677110011</v>
       </c>
-      <c r="E264" s="1">
+      <c r="E264" s="2">
         <v>254859.54975000001</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>1</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C265" s="1">
+      <c r="C265" s="2">
         <v>231561.64683339998</v>
       </c>
-      <c r="D265" s="1">
+      <c r="D265" s="2">
         <v>4100.6215017690001</v>
       </c>
-      <c r="E265" s="1">
+      <c r="E265" s="2">
         <v>10363.9049423</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>1</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C266" s="1">
+      <c r="C266" s="2">
         <v>116098.32588419001</v>
       </c>
-      <c r="D266" s="1">
+      <c r="D266" s="2">
         <v>1889.645478981</v>
       </c>
-      <c r="E266" s="1">
+      <c r="E266" s="2">
         <v>107496.47779</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>1</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C267" s="1">
+      <c r="C267" s="2">
         <v>125337.15662377</v>
       </c>
-      <c r="D267" s="1">
+      <c r="D267" s="2">
         <v>2157.4752929210003</v>
       </c>
-      <c r="E267" s="1">
+      <c r="E267" s="2">
         <v>63565.531418999999</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>1</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C268" s="1">
+      <c r="C268" s="2">
         <v>9550.3969768610004</v>
       </c>
-      <c r="D268" s="1">
+      <c r="D268" s="2">
         <v>77.361752446810002</v>
       </c>
-      <c r="E268" s="1">
+      <c r="E268" s="2">
         <v>35157.533905000004</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>1</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C269" s="1">
+      <c r="C269" s="2">
         <v>1135.5250367655999</v>
       </c>
-      <c r="D269" s="1">
+      <c r="D269" s="2">
         <v>35.64929646785</v>
       </c>
-      <c r="E269" s="1">
+      <c r="E269" s="2">
         <v>1351.3131216000002</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>1</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C270" s="1">
+      <c r="C270" s="2">
         <v>34288.252203660006</v>
       </c>
-      <c r="D270" s="1">
+      <c r="D270" s="2">
         <v>542.59076047539997</v>
       </c>
-      <c r="E270" s="1">
+      <c r="E270" s="2">
         <v>14629.211142</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>1</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C271" s="1">
+      <c r="C271" s="2">
         <v>630.80880527990007</v>
       </c>
-      <c r="D271" s="1">
+      <c r="D271" s="2">
         <v>7.4771059254059997</v>
       </c>
-      <c r="E271" s="1">
+      <c r="E271" s="2">
         <v>29403.798619000001</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>1</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C272" s="1">
+      <c r="C272" s="2">
         <v>20490.577834870001</v>
       </c>
-      <c r="D272" s="1">
-        <v>0</v>
-      </c>
-      <c r="E272" s="1">
+      <c r="D272" s="2">
+        <v>0</v>
+      </c>
+      <c r="E272" s="2">
         <v>2496189.1838000002</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>1</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C273" s="1">
+      <c r="C273" s="2">
         <v>11116.369575766001</v>
       </c>
-      <c r="D273" s="1">
+      <c r="D273" s="2">
         <v>592.34030624729996</v>
       </c>
-      <c r="E273" s="1">
+      <c r="E273" s="2">
         <v>1373.6112403000002</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>1</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C274" s="1">
+      <c r="C274" s="2">
         <v>76589.621665440005</v>
       </c>
-      <c r="D274" s="1">
+      <c r="D274" s="2">
         <v>739.07257413209993</v>
       </c>
-      <c r="E274" s="1">
+      <c r="E274" s="2">
         <v>608814.86509999994</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>1</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C275" s="1">
+      <c r="C275" s="2">
         <v>3041.3185458110001</v>
       </c>
-      <c r="D275" s="1">
-        <v>0</v>
-      </c>
-      <c r="E275" s="1">
+      <c r="D275" s="2">
+        <v>0</v>
+      </c>
+      <c r="E275" s="2">
         <v>286781.71743000002</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>1</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C276" s="1">
+      <c r="C276" s="2">
         <v>14783.27114576</v>
       </c>
-      <c r="D276" s="1">
-        <v>0</v>
-      </c>
-      <c r="E276" s="1">
+      <c r="D276" s="2">
+        <v>0</v>
+      </c>
+      <c r="E276" s="2">
         <v>170740.75824000002</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>1</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C277" s="1">
+      <c r="C277" s="2">
         <v>27996.18245814</v>
       </c>
-      <c r="D277" s="1">
+      <c r="D277" s="2">
         <v>334.89935594440004</v>
       </c>
-      <c r="E277" s="1">
+      <c r="E277" s="2">
         <v>79569.096697999994</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>1</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C278" s="1">
+      <c r="C278" s="2">
         <v>2944.0750868749997</v>
       </c>
-      <c r="D278" s="1">
+      <c r="D278" s="2">
         <v>85.242456698360002</v>
       </c>
-      <c r="E278" s="1">
+      <c r="E278" s="2">
         <v>84263.606778000001</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>1</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C279" s="1">
+      <c r="C279" s="2">
         <v>341.88106988750002</v>
       </c>
-      <c r="D279" s="1">
+      <c r="D279" s="2">
         <v>6.3798037062500006</v>
       </c>
-      <c r="E279" s="1">
+      <c r="E279" s="2">
         <v>0.2477098663</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>1</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C280" s="1">
+      <c r="C280" s="2">
         <v>96785.487304220005</v>
       </c>
-      <c r="D280" s="1">
-        <v>0</v>
-      </c>
-      <c r="E280" s="1">
+      <c r="D280" s="2">
+        <v>0</v>
+      </c>
+      <c r="E280" s="2">
         <v>5866764.4048000006</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>1</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C281" s="1">
+      <c r="C281" s="2">
         <v>89675.568977410003</v>
       </c>
-      <c r="D281" s="1">
+      <c r="D281" s="2">
         <v>1928.3663896640001</v>
       </c>
-      <c r="E281" s="1">
+      <c r="E281" s="2">
         <v>219245.84513</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>1</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C282" s="1">
+      <c r="C282" s="2">
         <v>22731.856800510002</v>
       </c>
-      <c r="D282" s="1">
+      <c r="D282" s="2">
         <v>72.329722095410006</v>
       </c>
-      <c r="E282" s="1">
+      <c r="E282" s="2">
         <v>85050.899296999996</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>1</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C283" s="1">
+      <c r="C283" s="2">
         <v>1197111.6637571</v>
       </c>
-      <c r="D283" s="1">
+      <c r="D283" s="2">
         <v>20717.515920010002</v>
       </c>
-      <c r="E283" s="1">
+      <c r="E283" s="2">
         <v>417391.37374999997</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>1</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C284" s="1">
+      <c r="C284" s="2">
         <v>16089.890214320001</v>
       </c>
-      <c r="D284" s="1">
-        <v>0</v>
-      </c>
-      <c r="E284" s="1">
+      <c r="D284" s="2">
+        <v>0</v>
+      </c>
+      <c r="E284" s="2">
         <v>624566.25855000003</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>1</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C285" s="1">
-        <v>0</v>
-      </c>
-      <c r="D285" s="1">
-        <v>0</v>
-      </c>
-      <c r="E285" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C285" s="2">
+        <v>0</v>
+      </c>
+      <c r="D285" s="2">
+        <v>0</v>
+      </c>
+      <c r="E285" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>1</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C286" s="1">
+      <c r="C286" s="2">
         <v>28847.369743140003</v>
       </c>
-      <c r="D286" s="1">
-        <v>0</v>
-      </c>
-      <c r="E286" s="1">
+      <c r="D286" s="2">
+        <v>0</v>
+      </c>
+      <c r="E286" s="2">
         <v>46484.520654</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>1</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C287" s="1">
+      <c r="C287" s="2">
         <v>151632.66209910001</v>
       </c>
-      <c r="D287" s="1">
+      <c r="D287" s="2">
         <v>2922.208504579</v>
       </c>
-      <c r="E287" s="1">
+      <c r="E287" s="2">
         <v>17462.011671</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>1</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C288" s="1">
+      <c r="C288" s="2">
         <v>632878.21278890001</v>
       </c>
-      <c r="D288" s="1">
+      <c r="D288" s="2">
         <v>11069.95077825</v>
       </c>
-      <c r="E288" s="1">
+      <c r="E288" s="2">
         <v>1165313.38534</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>1</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C289" s="1">
+      <c r="C289" s="2">
         <v>15183.41110832</v>
       </c>
-      <c r="D289" s="1">
+      <c r="D289" s="2">
         <v>296.30441714120002</v>
       </c>
-      <c r="E289" s="1">
+      <c r="E289" s="2">
         <v>1075.61738141</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>1</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C290" s="1">
+      <c r="C290" s="2">
         <v>136449.25099130001</v>
       </c>
-      <c r="D290" s="1">
+      <c r="D290" s="2">
         <v>2625.9040874429998</v>
       </c>
-      <c r="E290" s="1">
+      <c r="E290" s="2">
         <v>16386.394297000003</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>1</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C291" s="1">
+      <c r="C291" s="2">
         <v>292064.9348318</v>
       </c>
-      <c r="D291" s="1">
-        <v>0</v>
-      </c>
-      <c r="E291" s="1">
+      <c r="D291" s="2">
+        <v>0</v>
+      </c>
+      <c r="E291" s="2">
         <v>8168374.6794000007</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>1</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C292" s="1">
+      <c r="C292" s="2">
         <v>8249.0937121710012</v>
       </c>
-      <c r="D292" s="1">
-        <v>0</v>
-      </c>
-      <c r="E292" s="1">
+      <c r="D292" s="2">
+        <v>0</v>
+      </c>
+      <c r="E292" s="2">
         <v>966425.45961000002</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>1</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C293" s="1">
+      <c r="C293" s="2">
         <v>259815.05836910001</v>
       </c>
-      <c r="D293" s="1">
+      <c r="D293" s="2">
         <v>2777.9787985820003</v>
       </c>
-      <c r="E293" s="1">
+      <c r="E293" s="2">
         <v>4709278.0098000001</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>1</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C294" s="1">
+      <c r="C294" s="2">
         <v>81887.055649620001</v>
       </c>
-      <c r="D294" s="1">
+      <c r="D294" s="2">
         <v>1168.2672264562</v>
       </c>
-      <c r="E294" s="1">
+      <c r="E294" s="2">
         <v>52105.62219200001</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>1</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C295" s="1">
+      <c r="C295" s="2">
         <v>28304.529376369999</v>
       </c>
-      <c r="D295" s="1">
-        <v>0</v>
-      </c>
-      <c r="E295" s="1">
+      <c r="D295" s="2">
+        <v>0</v>
+      </c>
+      <c r="E295" s="2">
         <v>8186793.4161</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>1</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C296" s="1">
+      <c r="C296" s="2">
         <v>301.39055741730004</v>
       </c>
-      <c r="D296" s="1">
+      <c r="D296" s="2">
         <v>10.047633431706</v>
       </c>
-      <c r="E296" s="1">
+      <c r="E296" s="2">
         <v>331.00269058999999</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>1</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C297" s="1">
+      <c r="C297" s="2">
         <v>319117.6440192</v>
       </c>
-      <c r="D297" s="1">
+      <c r="D297" s="2">
         <v>201.74015838080001</v>
       </c>
-      <c r="E297" s="1">
+      <c r="E297" s="2">
         <v>11426229.2313</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>1</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C298" s="1">
+      <c r="C298" s="2">
         <v>108686.01390855</v>
       </c>
-      <c r="D298" s="1">
+      <c r="D298" s="2">
         <v>3540.9089832999998</v>
       </c>
-      <c r="E298" s="1">
+      <c r="E298" s="2">
         <v>4099.2007926999995</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>1</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C299" s="1">
+      <c r="C299" s="2">
         <v>846143.30664110009</v>
       </c>
-      <c r="D299" s="1">
+      <c r="D299" s="2">
         <v>30071.355751840001</v>
       </c>
-      <c r="E299" s="1">
+      <c r="E299" s="2">
         <v>195173.11489</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>1</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C300" s="1">
+      <c r="C300" s="2">
         <v>77291.70509073</v>
       </c>
-      <c r="D300" s="1">
+      <c r="D300" s="2">
         <v>897.07979012600003</v>
       </c>
-      <c r="E300" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E300" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>1</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C301" s="1">
+      <c r="C301" s="2">
         <v>235016.41508670003</v>
       </c>
-      <c r="D301" s="1">
+      <c r="D301" s="2">
         <v>2750.8895357970005</v>
       </c>
-      <c r="E301" s="1">
+      <c r="E301" s="2">
         <v>232700.18927999999</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>1</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C302" s="1">
+      <c r="C302" s="2">
         <v>46681.18688324</v>
       </c>
-      <c r="D302" s="1">
-        <v>0</v>
-      </c>
-      <c r="E302" s="1">
+      <c r="D302" s="2">
+        <v>0</v>
+      </c>
+      <c r="E302" s="2">
         <v>12920775.389600001</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>1</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C303" s="1">
+      <c r="C303" s="2">
         <v>4788.2870994140003</v>
       </c>
-      <c r="D303" s="1">
+      <c r="D303" s="2">
         <v>93.534202589229992</v>
       </c>
-      <c r="E303" s="1">
+      <c r="E303" s="2">
         <v>386.73228438000001</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>1</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C304" s="1">
+      <c r="C304" s="2">
         <v>87824.795390930012</v>
       </c>
-      <c r="D304" s="1">
+      <c r="D304" s="2">
         <v>1040.3196370983001</v>
       </c>
-      <c r="E304" s="1">
+      <c r="E304" s="2">
         <v>279.96661043</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>1</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C305" s="1">
+      <c r="C305" s="2">
         <v>5009.0046255730003</v>
       </c>
-      <c r="D305" s="1">
+      <c r="D305" s="2">
         <v>57.893501260789996</v>
       </c>
-      <c r="E305" s="1">
+      <c r="E305" s="2">
         <v>3837.9888014000003</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>1</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C306" s="1">
+      <c r="C306" s="2">
         <v>36231.103948780001</v>
       </c>
-      <c r="D306" s="1">
-        <v>0</v>
-      </c>
-      <c r="E306" s="1">
+      <c r="D306" s="2">
+        <v>0</v>
+      </c>
+      <c r="E306" s="2">
         <v>2539788.5175000001</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>1</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C307" s="1">
+      <c r="C307" s="2">
         <v>8031.8934001409998</v>
       </c>
-      <c r="D307" s="1">
+      <c r="D307" s="2">
         <v>263.48078741530003</v>
       </c>
-      <c r="E307" s="1">
+      <c r="E307" s="2">
         <v>999.86996447000001</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>1</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C308" s="1">
+      <c r="C308" s="2">
         <v>100077.66281305</v>
       </c>
-      <c r="D308" s="1">
+      <c r="D308" s="2">
         <v>3431.2437175380001</v>
       </c>
-      <c r="E308" s="1">
+      <c r="E308" s="2">
         <v>2965.689077</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>1</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C309" s="1">
+      <c r="C309" s="2">
         <v>2126.9799837780001</v>
       </c>
-      <c r="D309" s="1">
-        <v>0</v>
-      </c>
-      <c r="E309" s="1">
+      <c r="D309" s="2">
+        <v>0</v>
+      </c>
+      <c r="E309" s="2">
         <v>26674.147175000002</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>1</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C310" s="1">
+      <c r="C310" s="2">
         <v>1224211.5547986999</v>
       </c>
-      <c r="D310" s="1">
+      <c r="D310" s="2">
         <v>20972.625596649999</v>
       </c>
-      <c r="E310" s="1">
+      <c r="E310" s="2">
         <v>595613.02268000005</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>1</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C311" s="1">
+      <c r="C311" s="2">
         <v>585.01017846050001</v>
       </c>
-      <c r="D311" s="1">
-        <v>0</v>
-      </c>
-      <c r="E311" s="1">
+      <c r="D311" s="2">
+        <v>0</v>
+      </c>
+      <c r="E311" s="2">
         <v>547329.36725999997</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>1</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C312" s="1">
+      <c r="C312" s="2">
         <v>565.52664857650007</v>
       </c>
-      <c r="D312" s="1">
-        <v>0</v>
-      </c>
-      <c r="E312" s="1">
+      <c r="D312" s="2">
+        <v>0</v>
+      </c>
+      <c r="E312" s="2">
         <v>4115190.8525</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>1</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C313" s="1">
+      <c r="C313" s="2">
         <v>693969.85337550007</v>
       </c>
-      <c r="D313" s="1">
+      <c r="D313" s="2">
         <v>18117.977552349999</v>
       </c>
-      <c r="E313" s="1">
+      <c r="E313" s="2">
         <v>10573859.4988</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>1</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C314" s="1">
+      <c r="C314" s="2">
         <v>549.81139957380003</v>
       </c>
-      <c r="D314" s="1">
-        <v>0</v>
-      </c>
-      <c r="E314" s="1">
+      <c r="D314" s="2">
+        <v>0</v>
+      </c>
+      <c r="E314" s="2">
         <v>33681.728314</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>1</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C315" s="1">
+      <c r="C315" s="2">
         <v>35568.767145990001</v>
       </c>
-      <c r="D315" s="1">
+      <c r="D315" s="2">
         <v>501.74368911940007</v>
       </c>
-      <c r="E315" s="1">
+      <c r="E315" s="2">
         <v>2040.0754777000002</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>1</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C316" s="1">
+      <c r="C316" s="2">
         <v>51468.531962249996</v>
       </c>
-      <c r="D316" s="1">
+      <c r="D316" s="2">
         <v>867.28479634550001</v>
       </c>
-      <c r="E316" s="1">
+      <c r="E316" s="2">
         <v>19888.239968999998</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>1</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C317" s="1">
+      <c r="C317" s="2">
         <v>1261203.9629293</v>
       </c>
-      <c r="D317" s="1">
+      <c r="D317" s="2">
         <v>17638.289691620001</v>
       </c>
-      <c r="E317" s="1">
+      <c r="E317" s="2">
         <v>3926021.4967999998</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>1</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C318" s="1">
+      <c r="C318" s="2">
         <v>37745.800492009999</v>
       </c>
-      <c r="D318" s="1">
+      <c r="D318" s="2">
         <v>458.65614560609998</v>
       </c>
-      <c r="E318" s="1">
+      <c r="E318" s="2">
         <v>27676.966343</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>1</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C319" s="1">
+      <c r="C319" s="2">
         <v>42447.196765480003</v>
       </c>
-      <c r="D319" s="1">
+      <c r="D319" s="2">
         <v>53.875357178630004</v>
       </c>
-      <c r="E319" s="1">
+      <c r="E319" s="2">
         <v>1571238.2646999999</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>1</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C320" s="1">
+      <c r="C320" s="2">
         <v>28122.041508080001</v>
       </c>
-      <c r="D320" s="1">
+      <c r="D320" s="2">
         <v>345.95355868839999</v>
       </c>
-      <c r="E320" s="1">
+      <c r="E320" s="2">
         <v>634423.24023</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>1</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C321" s="1">
+      <c r="C321" s="2">
         <v>4509.8663227930001</v>
       </c>
-      <c r="D321" s="1">
+      <c r="D321" s="2">
         <v>114.35151404508001</v>
       </c>
-      <c r="E321" s="1">
+      <c r="E321" s="2">
         <v>34180.398837000001</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>1</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C322" s="1">
+      <c r="C322" s="2">
         <v>41135.537150759999</v>
       </c>
-      <c r="D322" s="1">
+      <c r="D322" s="2">
         <v>473.97316756010002</v>
       </c>
-      <c r="E322" s="1">
+      <c r="E322" s="2">
         <v>63349.068080999998</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>1</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C323" s="1">
+      <c r="C323" s="2">
         <v>1140.8813574314001</v>
       </c>
-      <c r="D323" s="1">
+      <c r="D323" s="2">
         <v>5.1594853983530005</v>
       </c>
-      <c r="E323" s="1">
+      <c r="E323" s="2">
         <v>12912.764681700002</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>1</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C324" s="1">
+      <c r="C324" s="2">
         <v>30409.544439430003</v>
       </c>
-      <c r="D324" s="1">
-        <v>0</v>
-      </c>
-      <c r="E324" s="1">
+      <c r="D324" s="2">
+        <v>0</v>
+      </c>
+      <c r="E324" s="2">
         <v>504406.21491000004</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>1</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C325" s="1">
+      <c r="C325" s="2">
         <v>13196.464355489999</v>
       </c>
-      <c r="D325" s="1">
+      <c r="D325" s="2">
         <v>432.73858328220001</v>
       </c>
-      <c r="E325" s="1">
+      <c r="E325" s="2">
         <v>1547.5700681999999</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>1</v>
       </c>
       <c r="B326" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C326" s="1">
+      <c r="C326" s="2">
         <v>4285.971310725</v>
       </c>
-      <c r="D326" s="1">
+      <c r="D326" s="2">
         <v>2.234801469043</v>
       </c>
-      <c r="E326" s="1">
+      <c r="E326" s="2">
         <v>269452.22200000001</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>1</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C327" s="1">
+      <c r="C327" s="2">
         <v>29390.816731770003</v>
       </c>
-      <c r="D327" s="1">
+      <c r="D327" s="2">
         <v>415.05468191590001</v>
       </c>
-      <c r="E327" s="1">
+      <c r="E327" s="2">
         <v>42688.607286000006</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>1</v>
       </c>
       <c r="B328" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C328" s="1">
+      <c r="C328" s="2">
         <v>6320.8246552360006</v>
       </c>
-      <c r="D328" s="1">
+      <c r="D328" s="2">
         <v>223.08305229860002</v>
       </c>
-      <c r="E328" s="1">
+      <c r="E328" s="2">
         <v>208.75285054000003</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>1</v>
       </c>
       <c r="B329" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C329" s="1">
+      <c r="C329" s="2">
         <v>10874.361834453002</v>
       </c>
-      <c r="D329" s="1">
+      <c r="D329" s="2">
         <v>91.481012989340002</v>
       </c>
-      <c r="E329" s="1">
+      <c r="E329" s="2">
         <v>74421.159995000009</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>1</v>
       </c>
       <c r="B330" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="C330" s="1">
+      <c r="C330" s="2">
         <v>40539.90654181</v>
       </c>
-      <c r="D330" s="1">
-        <v>0</v>
-      </c>
-      <c r="E330" s="1">
+      <c r="D330" s="2">
+        <v>0</v>
+      </c>
+      <c r="E330" s="2">
         <v>1324172.0426999999</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>1</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C331" s="1">
+      <c r="C331" s="2">
         <v>215.96659781840003</v>
       </c>
-      <c r="D331" s="1">
+      <c r="D331" s="2">
         <v>5.2369333091530006</v>
       </c>
-      <c r="E331" s="1">
+      <c r="E331" s="2">
         <v>9.6537851228000005</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>1</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C332" s="1">
+      <c r="C332" s="2">
         <v>4474.799688567</v>
       </c>
-      <c r="D332" s="1">
-        <v>0</v>
-      </c>
-      <c r="E332" s="1">
+      <c r="D332" s="2">
+        <v>0</v>
+      </c>
+      <c r="E332" s="2">
         <v>18726272.604000002</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>1</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C333" s="1">
+      <c r="C333" s="2">
         <v>235856.89747880001</v>
       </c>
-      <c r="D333" s="1">
+      <c r="D333" s="2">
         <v>2775.6190890090002</v>
       </c>
-      <c r="E333" s="1">
+      <c r="E333" s="2">
         <v>31548.00779</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>1</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C334" s="1">
-        <v>0</v>
-      </c>
-      <c r="D334" s="1">
-        <v>0</v>
-      </c>
-      <c r="E334" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C334" s="2">
+        <v>0</v>
+      </c>
+      <c r="D334" s="2">
+        <v>0</v>
+      </c>
+      <c r="E334" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>1</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C335" s="1">
-        <v>0</v>
-      </c>
-      <c r="D335" s="1">
-        <v>0</v>
-      </c>
-      <c r="E335" s="1">
+      <c r="C335" s="2">
+        <v>0</v>
+      </c>
+      <c r="D335" s="2">
+        <v>0</v>
+      </c>
+      <c r="E335" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/Demo BoD.xlsx
+++ b/data/Demo BoD.xlsx
@@ -862,6 +862,24 @@
     <t xml:space="preserve">H influenzae type B meningitis</t>
   </si>
   <si>
+    <t xml:space="preserve">A.1.1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Headache disorders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hemoglobinopathies and hemolytic anemias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.1.1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hemolytic disease and other neonatal jaundice</t>
+  </si>
+  <si>
     <t xml:space="preserve">B.5.6</t>
   </si>
   <si>
@@ -898,24 +916,6 @@
     <t xml:space="preserve">HIV/AIDS resulting in other diseases</t>
   </si>
   <si>
-    <t xml:space="preserve">A.1.1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Headache disorders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hemoglobinopathies and hemolytic anemias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.1.1.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hemolytic disease and other neonatal jaundice</t>
-  </si>
-  <si>
     <t xml:space="preserve">B.1.25</t>
   </si>
   <si>
@@ -1072,30 +1072,30 @@
     <t xml:space="preserve">Liver cancer</t>
   </si>
   <si>
+    <t xml:space="preserve">B.1.7.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liver cancer due to alcohol use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.7.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liver cancer due to hepatitis B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.7.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liver cancer due to hepatitis C</t>
+  </si>
+  <si>
     <t xml:space="preserve">B.1.7.3</t>
   </si>
   <si>
     <t xml:space="preserve">Liver cancer due to NASH</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.7.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liver cancer due to alcohol use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.1.7.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liver cancer due to hepatitis B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.1.7.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liver cancer due to hepatitis C</t>
-  </si>
-  <si>
     <t xml:space="preserve">B.1.7.5</t>
   </si>
   <si>
@@ -1348,16 +1348,16 @@
     <t xml:space="preserve">Neurological disorders</t>
   </si>
   <si>
+    <t xml:space="preserve">B.1.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-communicable diseases</t>
+  </si>
+  <si>
     <t xml:space="preserve">B</t>
   </si>
   <si>
     <t xml:space="preserve">Non-Hodgkin lymphoma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.1.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-communicable diseases</t>
   </si>
   <si>
     <t xml:space="preserve">B.1.13</t>
@@ -2305,7 +2305,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -2331,19 +2331,19 @@
   </sheetPr>
   <dimension ref="A1:F361"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A325" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C354" activeCellId="0" sqref="C354"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="64.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2408,7 +2408,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>10</v>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>36</v>
@@ -2748,7 +2748,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>44</v>
@@ -2988,7 +2988,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>68</v>
@@ -3108,7 +3108,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>80</v>
@@ -3208,7 +3208,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>90</v>
@@ -3228,7 +3228,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>92</v>
@@ -3348,7 +3348,7 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>104</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>108</v>
@@ -3568,7 +3568,7 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>126</v>
@@ -3588,7 +3588,7 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>128</v>
@@ -3768,7 +3768,7 @@
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>146</v>
@@ -3828,7 +3828,7 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>152</v>
@@ -4028,7 +4028,7 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>172</v>
@@ -4048,7 +4048,7 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>174</v>
@@ -4068,7 +4068,7 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>176</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>178</v>
@@ -4208,7 +4208,7 @@
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>190</v>
@@ -4288,7 +4288,7 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>198</v>
@@ -4348,7 +4348,7 @@
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B101" s="0" t="s">
         <v>204</v>
@@ -4508,7 +4508,7 @@
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B109" s="0" t="s">
         <v>220</v>
@@ -4628,7 +4628,7 @@
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>232</v>
@@ -4668,7 +4668,7 @@
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B117" s="0" t="s">
         <v>236</v>
@@ -4748,7 +4748,7 @@
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B121" s="0" t="s">
         <v>244</v>
@@ -5068,7 +5068,7 @@
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B137" s="0" t="s">
         <v>276</v>
@@ -5117,18 +5117,18 @@
         <v>281</v>
       </c>
       <c r="D139" s="1" t="n">
-        <v>19689.6262609686</v>
+        <v>234430.795779945</v>
       </c>
       <c r="E139" s="1" t="n">
-        <v>302.166880339637</v>
+        <v>0</v>
       </c>
       <c r="F139" s="1" t="n">
-        <v>4730.03433006</v>
+        <v>10991635.8889</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B140" s="0" t="s">
         <v>282</v>
@@ -5137,38 +5137,38 @@
         <v>283</v>
       </c>
       <c r="D140" s="1" t="n">
-        <v>223.082657814628</v>
+        <v>89041.218251672</v>
       </c>
       <c r="E140" s="1" t="n">
-        <v>3.47418568889474</v>
+        <v>794.52034125484</v>
       </c>
       <c r="F140" s="1" t="n">
-        <v>13.6445015086</v>
+        <v>8833611.69768</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B141" s="0" t="s">
+      <c r="B141" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>285</v>
       </c>
       <c r="D141" s="1" t="n">
-        <v>3.36252663999141</v>
+        <v>106013.489912999</v>
       </c>
       <c r="E141" s="1" t="n">
-        <v>0.0534685713525858</v>
+        <v>1063.67761654316</v>
       </c>
       <c r="F141" s="1" t="n">
-        <v>0.027791550853</v>
+        <v>30231.5848717</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B142" s="0" t="s">
         <v>286</v>
@@ -5177,18 +5177,18 @@
         <v>287</v>
       </c>
       <c r="D142" s="1" t="n">
-        <v>36.3021007435418</v>
+        <v>19689.6262609686</v>
       </c>
       <c r="E142" s="1" t="n">
-        <v>0.573984966537946</v>
+        <v>302.166880339637</v>
       </c>
       <c r="F142" s="1" t="n">
-        <v>0.787414550007</v>
+        <v>4730.03433006</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B143" s="0" t="s">
         <v>288</v>
@@ -5197,38 +5197,38 @@
         <v>289</v>
       </c>
       <c r="D143" s="1" t="n">
-        <v>78102.9420720989</v>
+        <v>223.082657814628</v>
       </c>
       <c r="E143" s="1" t="n">
-        <v>925.022793589301</v>
+        <v>3.47418568889474</v>
       </c>
       <c r="F143" s="1" t="n">
-        <v>3089888.29432</v>
+        <v>13.6445015086</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B144" s="0" t="s">
         <v>290</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>291</v>
       </c>
       <c r="D144" s="1" t="n">
-        <v>19426.8789757704</v>
+        <v>3.36252663999141</v>
       </c>
       <c r="E144" s="1" t="n">
-        <v>298.065241112852</v>
+        <v>0.0534685713525858</v>
       </c>
       <c r="F144" s="1" t="n">
-        <v>4715.57462245</v>
+        <v>0.027791550853</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B145" s="0" t="s">
         <v>292</v>
@@ -5237,13 +5237,13 @@
         <v>293</v>
       </c>
       <c r="D145" s="1" t="n">
-        <v>234430.795779945</v>
+        <v>36.3021007435418</v>
       </c>
       <c r="E145" s="1" t="n">
-        <v>0</v>
+        <v>0.573984966537946</v>
       </c>
       <c r="F145" s="1" t="n">
-        <v>10991635.8889</v>
+        <v>0.787414550007</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5257,13 +5257,13 @@
         <v>295</v>
       </c>
       <c r="D146" s="1" t="n">
-        <v>89041.218251672</v>
+        <v>78102.9420720989</v>
       </c>
       <c r="E146" s="1" t="n">
-        <v>794.52034125484</v>
+        <v>925.022793589301</v>
       </c>
       <c r="F146" s="1" t="n">
-        <v>8833611.69768</v>
+        <v>3089888.29432</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5277,13 +5277,13 @@
         <v>297</v>
       </c>
       <c r="D147" s="1" t="n">
-        <v>106013.489912999</v>
+        <v>19426.8789757704</v>
       </c>
       <c r="E147" s="1" t="n">
-        <v>1063.67761654316</v>
+        <v>298.065241112852</v>
       </c>
       <c r="F147" s="1" t="n">
-        <v>30231.5848717</v>
+        <v>4715.57462245</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5428,7 +5428,7 @@
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B155" s="0" t="s">
         <v>312</v>
@@ -5448,7 +5448,7 @@
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B156" s="0" t="s">
         <v>314</v>
@@ -5488,7 +5488,7 @@
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B158" s="0" t="s">
         <v>318</v>
@@ -5708,7 +5708,7 @@
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B169" s="0" t="s">
         <v>340</v>
@@ -5748,7 +5748,7 @@
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B171" s="0" t="s">
         <v>344</v>
@@ -5768,7 +5768,7 @@
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B172" s="0" t="s">
         <v>346</v>
@@ -5788,7 +5788,7 @@
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B173" s="0" t="s">
         <v>348</v>
@@ -5817,13 +5817,13 @@
         <v>351</v>
       </c>
       <c r="D174" s="1" t="n">
-        <v>1471.91919337854</v>
+        <v>1547.19142345038</v>
       </c>
       <c r="E174" s="1" t="n">
-        <v>56.1139288126655</v>
+        <v>59.1158687613433</v>
       </c>
       <c r="F174" s="1" t="n">
-        <v>59.4720717303</v>
+        <v>64.2830811154</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5837,13 +5837,13 @@
         <v>353</v>
       </c>
       <c r="D175" s="1" t="n">
-        <v>1547.19142345038</v>
+        <v>7795.36390018066</v>
       </c>
       <c r="E175" s="1" t="n">
-        <v>59.1158687613433</v>
+        <v>216.567251231455</v>
       </c>
       <c r="F175" s="1" t="n">
-        <v>64.2830811154</v>
+        <v>289.114844363</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5857,13 +5857,13 @@
         <v>355</v>
       </c>
       <c r="D176" s="1" t="n">
-        <v>7795.36390018066</v>
+        <v>5280.67045704024</v>
       </c>
       <c r="E176" s="1" t="n">
-        <v>216.567251231455</v>
+        <v>212.286893227244</v>
       </c>
       <c r="F176" s="1" t="n">
-        <v>289.114844363</v>
+        <v>220.763337792</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5877,13 +5877,13 @@
         <v>357</v>
       </c>
       <c r="D177" s="1" t="n">
-        <v>5280.67045704024</v>
+        <v>1471.91919337854</v>
       </c>
       <c r="E177" s="1" t="n">
-        <v>212.286893227244</v>
+        <v>56.1139288126655</v>
       </c>
       <c r="F177" s="1" t="n">
-        <v>220.763337792</v>
+        <v>59.4720717303</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5988,7 +5988,7 @@
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B183" s="0" t="s">
         <v>368</v>
@@ -6068,7 +6068,7 @@
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B187" s="0" t="s">
         <v>376</v>
@@ -6108,7 +6108,7 @@
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B189" s="0" t="s">
         <v>380</v>
@@ -6128,7 +6128,7 @@
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B190" s="0" t="s">
         <v>382</v>
@@ -6228,7 +6228,7 @@
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B195" s="0" t="s">
         <v>392</v>
@@ -6268,7 +6268,7 @@
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B197" s="0" t="s">
         <v>396</v>
@@ -6448,7 +6448,7 @@
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B206" s="0" t="s">
         <v>414</v>
@@ -6508,7 +6508,7 @@
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B209" s="0" t="s">
         <v>420</v>
@@ -6568,7 +6568,7 @@
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B212" s="0" t="s">
         <v>426</v>
@@ -6588,7 +6588,7 @@
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B213" s="0" t="s">
         <v>428</v>
@@ -6668,7 +6668,7 @@
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B217" s="0" t="s">
         <v>436</v>
@@ -6688,7 +6688,7 @@
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B218" s="0" t="s">
         <v>438</v>
@@ -6708,7 +6708,7 @@
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B219" s="0" t="s">
         <v>440</v>
@@ -6737,18 +6737,18 @@
         <v>443</v>
       </c>
       <c r="D220" s="1" t="n">
-        <v>20085.6393310174</v>
+        <v>6948558.25354802</v>
       </c>
       <c r="E220" s="1" t="n">
-        <v>450.511898752071</v>
+        <v>116292.895021858</v>
       </c>
       <c r="F220" s="1" t="n">
-        <v>1740.80251002</v>
+        <v>29493091.4212</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B221" s="0" t="s">
         <v>444</v>
@@ -6757,18 +6757,18 @@
         <v>445</v>
       </c>
       <c r="D221" s="1" t="n">
-        <v>6948558.25354802</v>
+        <v>20085.6393310174</v>
       </c>
       <c r="E221" s="1" t="n">
-        <v>116292.895021858</v>
+        <v>450.511898752071</v>
       </c>
       <c r="F221" s="1" t="n">
-        <v>29493091.4212</v>
+        <v>1740.80251002</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B222" s="0" t="s">
         <v>446</v>
@@ -6868,7 +6868,7 @@
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B227" s="0" t="s">
         <v>456</v>
@@ -6908,7 +6908,7 @@
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B229" s="0" t="s">
         <v>460</v>
@@ -6968,7 +6968,7 @@
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B232" s="0" t="s">
         <v>466</v>
@@ -7248,7 +7248,7 @@
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B246" s="0" t="s">
         <v>494</v>
@@ -7448,7 +7448,7 @@
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B256" s="0" t="s">
         <v>514</v>
@@ -7488,7 +7488,7 @@
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B258" s="0" t="s">
         <v>518</v>
@@ -7568,7 +7568,7 @@
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B262" s="0" t="s">
         <v>526</v>
@@ -8088,7 +8088,7 @@
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B288" s="0" t="s">
         <v>578</v>
@@ -8148,7 +8148,7 @@
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B291" s="0" t="s">
         <v>584</v>
@@ -8368,7 +8368,7 @@
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B302" s="0" t="s">
         <v>606</v>
@@ -8388,7 +8388,7 @@
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B303" s="0" t="s">
         <v>608</v>
@@ -8428,7 +8428,7 @@
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B305" s="0" t="s">
         <v>612</v>
@@ -8488,7 +8488,7 @@
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B308" s="0" t="s">
         <v>618</v>
@@ -8528,7 +8528,7 @@
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B310" s="0" t="s">
         <v>622</v>
@@ -8548,7 +8548,7 @@
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B311" s="0" t="s">
         <v>624</v>
@@ -8608,7 +8608,7 @@
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B314" s="0" t="s">
         <v>630</v>
@@ -8648,7 +8648,7 @@
     </row>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B316" s="0" t="s">
         <v>634</v>
@@ -8728,7 +8728,7 @@
     </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B320" s="0" t="s">
         <v>642</v>
@@ -8768,7 +8768,7 @@
     </row>
     <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B322" s="0" t="s">
         <v>646</v>
@@ -8808,7 +8808,7 @@
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B324" s="0" t="s">
         <v>650</v>
@@ -9028,7 +9028,7 @@
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B335" s="0" t="s">
         <v>672</v>
@@ -9088,7 +9088,7 @@
     </row>
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B338" s="0" t="s">
         <v>678</v>
@@ -9128,7 +9128,7 @@
     </row>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B340" s="0" t="s">
         <v>682</v>
@@ -9188,7 +9188,7 @@
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B343" s="1" t="s">
         <v>688</v>
@@ -9208,7 +9208,7 @@
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B344" s="0" t="s">
         <v>690</v>
@@ -9248,7 +9248,7 @@
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B346" s="0" t="s">
         <v>694</v>

--- a/data/Demo BoD.xlsx
+++ b/data/Demo BoD.xlsx
@@ -1075,27 +1075,27 @@
     <t xml:space="preserve">B.1.7.1</t>
   </si>
   <si>
+    <t xml:space="preserve">Liver cancer due to NASH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.7.2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Liver cancer due to alcohol use</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.7.2</t>
+    <t xml:space="preserve">B.1.7.4</t>
   </si>
   <si>
     <t xml:space="preserve">Liver cancer due to hepatitis B</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.7.4</t>
+    <t xml:space="preserve">B.1.7.3</t>
   </si>
   <si>
     <t xml:space="preserve">Liver cancer due to hepatitis C</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.7.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liver cancer due to NASH</t>
-  </si>
-  <si>
     <t xml:space="preserve">B.1.7.5</t>
   </si>
   <si>
@@ -1348,13 +1348,13 @@
     <t xml:space="preserve">Neurological disorders</t>
   </si>
   <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-communicable diseases</t>
+  </si>
+  <si>
     <t xml:space="preserve">B.1.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-communicable diseases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
   </si>
   <si>
     <t xml:space="preserve">Non-Hodgkin lymphoma</t>
@@ -2331,8 +2331,8 @@
   </sheetPr>
   <dimension ref="A1:F361"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A147" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C165" activeCellId="0" sqref="C165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5817,13 +5817,13 @@
         <v>351</v>
       </c>
       <c r="D174" s="1" t="n">
-        <v>1547.19142345038</v>
+        <v>1471.91919337854</v>
       </c>
       <c r="E174" s="1" t="n">
-        <v>59.1158687613433</v>
+        <v>56.1139288126655</v>
       </c>
       <c r="F174" s="1" t="n">
-        <v>64.2830811154</v>
+        <v>59.4720717303</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5837,13 +5837,13 @@
         <v>353</v>
       </c>
       <c r="D175" s="1" t="n">
-        <v>7795.36390018066</v>
+        <v>1547.19142345038</v>
       </c>
       <c r="E175" s="1" t="n">
-        <v>216.567251231455</v>
+        <v>59.1158687613433</v>
       </c>
       <c r="F175" s="1" t="n">
-        <v>289.114844363</v>
+        <v>64.2830811154</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5857,13 +5857,13 @@
         <v>355</v>
       </c>
       <c r="D176" s="1" t="n">
-        <v>5280.67045704024</v>
+        <v>7795.36390018066</v>
       </c>
       <c r="E176" s="1" t="n">
-        <v>212.286893227244</v>
+        <v>216.567251231455</v>
       </c>
       <c r="F176" s="1" t="n">
-        <v>220.763337792</v>
+        <v>289.114844363</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5877,13 +5877,13 @@
         <v>357</v>
       </c>
       <c r="D177" s="1" t="n">
-        <v>1471.91919337854</v>
+        <v>5280.67045704024</v>
       </c>
       <c r="E177" s="1" t="n">
-        <v>56.1139288126655</v>
+        <v>212.286893227244</v>
       </c>
       <c r="F177" s="1" t="n">
-        <v>59.4720717303</v>
+        <v>220.763337792</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6728,7 +6728,7 @@
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B220" s="0" t="s">
         <v>442</v>
@@ -6748,7 +6748,7 @@
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B221" s="0" t="s">
         <v>444</v>
